--- a/flowchart.xlsx
+++ b/flowchart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="25560" windowHeight="14200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -832,7 +832,6 @@
             <a:rPr lang="en-US"/>
             <a:t>homepage.html</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </dgm:t>
     </dgm:pt>
@@ -2288,6 +2287,42 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F7BE6B11-B2D3-2147-89FE-A28A452E5EA3}" type="sibTrans" cxnId="{21A59127-0F77-4949-82CA-6CBC3E1F1B32}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2AC7BF45-BB13-2B49-BE10-2D2ED2A770C5}" type="asst">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>about.html (this covers a brief intro to Bryan Osborne)</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{955B4BFA-7BB0-1444-814B-3CC20D950E0F}" type="parTrans" cxnId="{352C113B-8628-D04E-989E-2627559BBEFE}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F2BAF7B8-ADE0-8948-9B61-2721A2368048}" type="sibTrans" cxnId="{352C113B-8628-D04E-989E-2627559BBEFE}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2310,6 +2345,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{2DB5850D-E971-AA49-B605-C884690094F7}" type="pres">
       <dgm:prSet presAssocID="{48643BAB-7807-3240-91F5-5DEF038BB486}" presName="hierRoot1" presStyleCnt="0">
@@ -2341,6 +2383,13 @@
     <dgm:pt modelId="{BE2AE1AF-EFB1-3C4D-B666-EBE1B65C89CC}" type="pres">
       <dgm:prSet presAssocID="{48643BAB-7807-3240-91F5-5DEF038BB486}" presName="rootConnector1" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F7532630-09FC-EF49-B3D4-E52785E020E4}" type="pres">
       <dgm:prSet presAssocID="{48643BAB-7807-3240-91F5-5DEF038BB486}" presName="hierChild2" presStyleCnt="0"/>
@@ -2351,8 +2400,15 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0781DECD-6C6E-C345-807E-C46093D21C62}" type="pres">
-      <dgm:prSet presAssocID="{00B34B9A-7857-BB49-97ED-26F372B163A5}" presName="Name111" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="1"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{00B34B9A-7857-BB49-97ED-26F372B163A5}" presName="Name111" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{15D20AF4-8DE2-DC48-9B0E-C8E03A5AF5FB}" type="pres">
       <dgm:prSet presAssocID="{79602D73-11B2-B448-A2F7-701D5264B757}" presName="hierRoot3" presStyleCnt="0">
@@ -2367,7 +2423,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{6570005E-6DBA-7D49-929B-7C0CB6C22ABE}" type="pres">
-      <dgm:prSet presAssocID="{79602D73-11B2-B448-A2F7-701D5264B757}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="0" presStyleCnt="40">
+      <dgm:prSet presAssocID="{79602D73-11B2-B448-A2F7-701D5264B757}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="0" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2382,7 +2438,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{567F9A90-E6CE-2A4E-8E0C-F280195E5CED}" type="pres">
-      <dgm:prSet presAssocID="{79602D73-11B2-B448-A2F7-701D5264B757}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="0" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{79602D73-11B2-B448-A2F7-701D5264B757}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="0" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2403,6 +2459,13 @@
     <dgm:pt modelId="{702F561C-3B1D-3F43-AF23-D48DA05FF27B}" type="pres">
       <dgm:prSet presAssocID="{D68CB686-78F0-B045-B573-D87C3BBB65CF}" presName="Name111" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6A6F5CB6-451C-C244-B1EF-7040915F73DA}" type="pres">
       <dgm:prSet presAssocID="{5F9F8C36-DC09-D148-A3A1-61A2A8EDE1A5}" presName="hierRoot3" presStyleCnt="0">
@@ -2417,7 +2480,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{36F9256E-EF1E-1649-95C3-EC3394BE632E}" type="pres">
-      <dgm:prSet presAssocID="{5F9F8C36-DC09-D148-A3A1-61A2A8EDE1A5}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="1" presStyleCnt="40">
+      <dgm:prSet presAssocID="{5F9F8C36-DC09-D148-A3A1-61A2A8EDE1A5}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="1" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2432,7 +2495,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{90F32754-9278-B54E-965F-B1D3E23247DE}" type="pres">
-      <dgm:prSet presAssocID="{5F9F8C36-DC09-D148-A3A1-61A2A8EDE1A5}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="1" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{5F9F8C36-DC09-D148-A3A1-61A2A8EDE1A5}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="1" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2453,6 +2516,13 @@
     <dgm:pt modelId="{82BAD0FA-8A9A-BE42-B014-59939AE60B13}" type="pres">
       <dgm:prSet presAssocID="{CAC9110F-3BE7-064E-A818-0BDEFD48FD99}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{0BAFAEE9-0AC8-C844-AE00-EF78EF26ADA2}" type="pres">
       <dgm:prSet presAssocID="{AEBF4446-075B-CB47-B91B-4EB37B32D182}" presName="hierRoot3" presStyleCnt="0">
@@ -2467,7 +2537,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B59F6365-8BA9-E74A-B4E4-AA8955AA885F}" type="pres">
-      <dgm:prSet presAssocID="{AEBF4446-075B-CB47-B91B-4EB37B32D182}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="2" presStyleCnt="40">
+      <dgm:prSet presAssocID="{AEBF4446-075B-CB47-B91B-4EB37B32D182}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="2" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2482,7 +2552,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E2C3C3F1-76BA-C24D-9356-572D6C751403}" type="pres">
-      <dgm:prSet presAssocID="{AEBF4446-075B-CB47-B91B-4EB37B32D182}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="2" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{AEBF4446-075B-CB47-B91B-4EB37B32D182}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="2" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2503,6 +2573,13 @@
     <dgm:pt modelId="{80661D37-0894-F04B-9C9E-0700B8CF2364}" type="pres">
       <dgm:prSet presAssocID="{C695C4C4-6F92-4B45-8C0A-06386EB397A0}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{AC07D215-3106-4C46-BD05-3A3BCA9DC4F3}" type="pres">
       <dgm:prSet presAssocID="{FB8F5E77-770B-5045-AC10-C69DC143C0E4}" presName="hierRoot3" presStyleCnt="0">
@@ -2517,7 +2594,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1A094F09-21A9-2446-9C87-D6568214B312}" type="pres">
-      <dgm:prSet presAssocID="{FB8F5E77-770B-5045-AC10-C69DC143C0E4}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="3" presStyleCnt="40">
+      <dgm:prSet presAssocID="{FB8F5E77-770B-5045-AC10-C69DC143C0E4}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="3" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2532,7 +2609,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D3B2EA26-D167-074D-A54D-725D67244D42}" type="pres">
-      <dgm:prSet presAssocID="{FB8F5E77-770B-5045-AC10-C69DC143C0E4}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="3" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{FB8F5E77-770B-5045-AC10-C69DC143C0E4}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="3" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2553,6 +2630,13 @@
     <dgm:pt modelId="{B75A8D49-AE71-874F-99F2-A59C6C4D7F9E}" type="pres">
       <dgm:prSet presAssocID="{727C5450-4BD0-AF4B-B826-2D2D8FC22A11}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5350CEE1-49A8-644F-8BB5-203D674A4385}" type="pres">
       <dgm:prSet presAssocID="{03422D19-D5F2-4D4F-95FE-CE35FE6C2848}" presName="hierRoot3" presStyleCnt="0">
@@ -2567,7 +2651,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0813E996-DE7E-CC4C-88B1-1605FACED624}" type="pres">
-      <dgm:prSet presAssocID="{03422D19-D5F2-4D4F-95FE-CE35FE6C2848}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="4" presStyleCnt="40">
+      <dgm:prSet presAssocID="{03422D19-D5F2-4D4F-95FE-CE35FE6C2848}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="4" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2582,7 +2666,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4D062FB9-F612-8147-BF29-B905BDE67D11}" type="pres">
-      <dgm:prSet presAssocID="{03422D19-D5F2-4D4F-95FE-CE35FE6C2848}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="4" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{03422D19-D5F2-4D4F-95FE-CE35FE6C2848}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="4" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2603,6 +2687,13 @@
     <dgm:pt modelId="{D386645B-FD3D-414D-A763-C0EF96BF3394}" type="pres">
       <dgm:prSet presAssocID="{C3388A01-6343-294F-8DAB-A14AC0879EA3}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6E766A95-6ADE-F441-B18C-76C6DDEEA156}" type="pres">
       <dgm:prSet presAssocID="{E2EC8535-7D4E-A248-92A3-B5ACE610CB1A}" presName="hierRoot3" presStyleCnt="0">
@@ -2617,7 +2708,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{10F3BD33-9FA5-4B44-8E3A-D6D6C8DD7D35}" type="pres">
-      <dgm:prSet presAssocID="{E2EC8535-7D4E-A248-92A3-B5ACE610CB1A}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="5" presStyleCnt="40">
+      <dgm:prSet presAssocID="{E2EC8535-7D4E-A248-92A3-B5ACE610CB1A}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="5" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2632,7 +2723,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5CA0A923-914E-8F46-B030-85660BD37343}" type="pres">
-      <dgm:prSet presAssocID="{E2EC8535-7D4E-A248-92A3-B5ACE610CB1A}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="5" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{E2EC8535-7D4E-A248-92A3-B5ACE610CB1A}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="5" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2653,6 +2744,13 @@
     <dgm:pt modelId="{CD85A698-F878-2342-8000-E4F4285D7D37}" type="pres">
       <dgm:prSet presAssocID="{8E1EE23A-AB5B-BD4B-8F2E-39BF6EE09BBD}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9E3C0C2A-42D8-454E-B5A7-496660010A35}" type="pres">
       <dgm:prSet presAssocID="{A0A51A2A-71A2-984D-86FF-1A42A10D5AC3}" presName="hierRoot3" presStyleCnt="0">
@@ -2667,7 +2765,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{96039AA3-075B-EA40-9C29-3D06574FDD82}" type="pres">
-      <dgm:prSet presAssocID="{A0A51A2A-71A2-984D-86FF-1A42A10D5AC3}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="6" presStyleCnt="40">
+      <dgm:prSet presAssocID="{A0A51A2A-71A2-984D-86FF-1A42A10D5AC3}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="6" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2682,7 +2780,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{52931A2F-8471-3945-B015-857D8B576A22}" type="pres">
-      <dgm:prSet presAssocID="{A0A51A2A-71A2-984D-86FF-1A42A10D5AC3}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="6" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{A0A51A2A-71A2-984D-86FF-1A42A10D5AC3}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="6" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2703,6 +2801,13 @@
     <dgm:pt modelId="{45FAAEC3-35EE-B441-BC14-7EDA67667DE5}" type="pres">
       <dgm:prSet presAssocID="{2E67D634-786B-9B45-BC6A-FBD11AA5F16B}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1A1565AF-D653-8C46-B712-52AE279310CB}" type="pres">
       <dgm:prSet presAssocID="{AE41CA35-4F4F-3348-A401-EAA6E49A75FC}" presName="hierRoot3" presStyleCnt="0">
@@ -2717,7 +2822,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{78E94E3B-D045-6C4B-AC79-537C4DE11A8B}" type="pres">
-      <dgm:prSet presAssocID="{AE41CA35-4F4F-3348-A401-EAA6E49A75FC}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="7" presStyleCnt="40">
+      <dgm:prSet presAssocID="{AE41CA35-4F4F-3348-A401-EAA6E49A75FC}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="7" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2732,7 +2837,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{48A25236-973E-BC4F-BDF9-5F0D8C3266FC}" type="pres">
-      <dgm:prSet presAssocID="{AE41CA35-4F4F-3348-A401-EAA6E49A75FC}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="7" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{AE41CA35-4F4F-3348-A401-EAA6E49A75FC}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="7" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2753,6 +2858,13 @@
     <dgm:pt modelId="{00627417-E916-FA40-8758-5CA68638FA5D}" type="pres">
       <dgm:prSet presAssocID="{6CCF7D33-F5D5-904E-8894-C59F7FC36E5C}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A223D32B-63B8-D046-88D3-D4542A46FF39}" type="pres">
       <dgm:prSet presAssocID="{8CE5F06C-4123-744C-AE0F-B8C8DEEC9D82}" presName="hierRoot3" presStyleCnt="0">
@@ -2767,7 +2879,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{30C235B5-1EB0-E145-A594-64C466D7B052}" type="pres">
-      <dgm:prSet presAssocID="{8CE5F06C-4123-744C-AE0F-B8C8DEEC9D82}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="8" presStyleCnt="40">
+      <dgm:prSet presAssocID="{8CE5F06C-4123-744C-AE0F-B8C8DEEC9D82}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="8" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2782,7 +2894,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{702EE945-9512-9C40-925B-2DFFD9CBC819}" type="pres">
-      <dgm:prSet presAssocID="{8CE5F06C-4123-744C-AE0F-B8C8DEEC9D82}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="8" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{8CE5F06C-4123-744C-AE0F-B8C8DEEC9D82}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="8" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2803,6 +2915,13 @@
     <dgm:pt modelId="{B2ADE3B0-CBED-3A44-A0D2-E859C476FD2F}" type="pres">
       <dgm:prSet presAssocID="{DE9327E2-91CD-3F46-9A7E-D13B9E0E9656}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{901E8901-0391-A845-A87E-DED75CD84B27}" type="pres">
       <dgm:prSet presAssocID="{676BD3E5-73D9-F64B-92A8-E237AD94C1EE}" presName="hierRoot3" presStyleCnt="0">
@@ -2817,7 +2936,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{350630EE-58E5-F04C-AC1A-4C64196B938E}" type="pres">
-      <dgm:prSet presAssocID="{676BD3E5-73D9-F64B-92A8-E237AD94C1EE}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="9" presStyleCnt="40">
+      <dgm:prSet presAssocID="{676BD3E5-73D9-F64B-92A8-E237AD94C1EE}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="9" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2832,7 +2951,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6FD374EA-C12D-D14F-A6A9-D3907D7ECB87}" type="pres">
-      <dgm:prSet presAssocID="{676BD3E5-73D9-F64B-92A8-E237AD94C1EE}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="9" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{676BD3E5-73D9-F64B-92A8-E237AD94C1EE}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="9" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2853,6 +2972,13 @@
     <dgm:pt modelId="{502F7D43-040B-6F46-BB75-6D60B24AAAEC}" type="pres">
       <dgm:prSet presAssocID="{AE6848BE-6B67-2145-8720-BEF970FB5FF7}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{54514772-8C08-8E45-8D9C-97E93327C8EC}" type="pres">
       <dgm:prSet presAssocID="{DBE5256E-F3FA-1447-891C-07CE2E104D57}" presName="hierRoot3" presStyleCnt="0">
@@ -2867,7 +2993,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E88F571A-854C-AC47-953F-4D04625BAA13}" type="pres">
-      <dgm:prSet presAssocID="{DBE5256E-F3FA-1447-891C-07CE2E104D57}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="10" presStyleCnt="40">
+      <dgm:prSet presAssocID="{DBE5256E-F3FA-1447-891C-07CE2E104D57}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="10" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2882,7 +3008,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{CF4CC3CF-EF1C-A647-94A9-53BB31527141}" type="pres">
-      <dgm:prSet presAssocID="{DBE5256E-F3FA-1447-891C-07CE2E104D57}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="10" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{DBE5256E-F3FA-1447-891C-07CE2E104D57}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="10" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2903,6 +3029,13 @@
     <dgm:pt modelId="{1EBCFEFC-05FB-C944-9159-90AB8B642FE9}" type="pres">
       <dgm:prSet presAssocID="{7D582346-277F-874D-B797-796D26052034}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="9" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{98DB6569-31A8-CA48-949B-EDC74B396340}" type="pres">
       <dgm:prSet presAssocID="{95654230-9F36-0740-BBEC-483F0D21D59B}" presName="hierRoot3" presStyleCnt="0">
@@ -2917,7 +3050,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A32C358C-6D14-0649-84AB-0052A00E0CD9}" type="pres">
-      <dgm:prSet presAssocID="{95654230-9F36-0740-BBEC-483F0D21D59B}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="11" presStyleCnt="40">
+      <dgm:prSet presAssocID="{95654230-9F36-0740-BBEC-483F0D21D59B}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="11" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2932,7 +3065,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4E1F02F2-F22C-E040-B694-36AF6746ADA9}" type="pres">
-      <dgm:prSet presAssocID="{95654230-9F36-0740-BBEC-483F0D21D59B}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="11" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{95654230-9F36-0740-BBEC-483F0D21D59B}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="11" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2953,6 +3086,13 @@
     <dgm:pt modelId="{BE0CC3ED-CD89-F245-B952-8DE6214A5D2A}" type="pres">
       <dgm:prSet presAssocID="{E6CCC3D2-7338-E04C-97E1-6E9C3C0D79BD}" presName="Name111" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{23F01024-CC14-954B-A6C4-8D798915D031}" type="pres">
       <dgm:prSet presAssocID="{A59E496E-FE5F-6C4C-8B67-B72CF1CFCC53}" presName="hierRoot3" presStyleCnt="0">
@@ -2967,7 +3107,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8A61D3F9-8C9D-154D-AB14-AF77FFEA945E}" type="pres">
-      <dgm:prSet presAssocID="{A59E496E-FE5F-6C4C-8B67-B72CF1CFCC53}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="12" presStyleCnt="40">
+      <dgm:prSet presAssocID="{A59E496E-FE5F-6C4C-8B67-B72CF1CFCC53}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="12" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2982,7 +3122,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{EEA4DBD0-035B-3142-A832-8B404AAB909E}" type="pres">
-      <dgm:prSet presAssocID="{A59E496E-FE5F-6C4C-8B67-B72CF1CFCC53}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="12" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{A59E496E-FE5F-6C4C-8B67-B72CF1CFCC53}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="12" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3003,6 +3143,13 @@
     <dgm:pt modelId="{9EA54BBB-0273-1747-A1C3-0BFD41C2B9AC}" type="pres">
       <dgm:prSet presAssocID="{3BE4010D-7CBC-4143-A1D8-C656F9F8AFAD}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="10" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{52F2D9A7-ECAD-594F-A8A3-49BE58BD5C34}" type="pres">
       <dgm:prSet presAssocID="{9BAB2237-F165-9A4A-9C21-3E22DAA14C4F}" presName="hierRoot3" presStyleCnt="0">
@@ -3017,7 +3164,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1A36237F-885D-9644-A72C-B998CE8310AC}" type="pres">
-      <dgm:prSet presAssocID="{9BAB2237-F165-9A4A-9C21-3E22DAA14C4F}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="13" presStyleCnt="40">
+      <dgm:prSet presAssocID="{9BAB2237-F165-9A4A-9C21-3E22DAA14C4F}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="13" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3032,7 +3179,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A33E0EF3-98D8-B843-90D5-91EA62DB027B}" type="pres">
-      <dgm:prSet presAssocID="{9BAB2237-F165-9A4A-9C21-3E22DAA14C4F}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="13" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{9BAB2237-F165-9A4A-9C21-3E22DAA14C4F}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="13" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3053,6 +3200,13 @@
     <dgm:pt modelId="{F4CF59C6-C368-4044-982E-36FC1A7EB303}" type="pres">
       <dgm:prSet presAssocID="{908B7F93-D1F0-D246-89A8-AB3367602B53}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="11" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{0F2E553C-7E7F-644A-B931-0166138AE996}" type="pres">
       <dgm:prSet presAssocID="{FCF6C2CD-760A-0347-811F-98C195F99225}" presName="hierRoot3" presStyleCnt="0">
@@ -3067,7 +3221,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8F419E7A-315F-1C48-A278-F72E6FC14400}" type="pres">
-      <dgm:prSet presAssocID="{FCF6C2CD-760A-0347-811F-98C195F99225}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="14" presStyleCnt="40">
+      <dgm:prSet presAssocID="{FCF6C2CD-760A-0347-811F-98C195F99225}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="14" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3082,7 +3236,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{692B3688-E37C-FA41-BA5C-C964C14700F4}" type="pres">
-      <dgm:prSet presAssocID="{FCF6C2CD-760A-0347-811F-98C195F99225}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="14" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{FCF6C2CD-760A-0347-811F-98C195F99225}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="14" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3103,6 +3257,13 @@
     <dgm:pt modelId="{8C8238B2-BA6B-C545-848F-C48E08EE9F63}" type="pres">
       <dgm:prSet presAssocID="{26BE77B1-2BCC-9F4E-AA76-EBB4A4C0E317}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="12" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D6C6CC5C-6339-D544-8303-5F27CD205A5E}" type="pres">
       <dgm:prSet presAssocID="{80D3D1E2-9073-C048-AAF2-51303E2E4ECF}" presName="hierRoot3" presStyleCnt="0">
@@ -3117,7 +3278,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{128F6B90-A50A-1C44-A410-1CC988237174}" type="pres">
-      <dgm:prSet presAssocID="{80D3D1E2-9073-C048-AAF2-51303E2E4ECF}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="15" presStyleCnt="40">
+      <dgm:prSet presAssocID="{80D3D1E2-9073-C048-AAF2-51303E2E4ECF}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="15" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3132,7 +3293,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{31615660-F132-3C49-B3B4-7DD2F5965CC0}" type="pres">
-      <dgm:prSet presAssocID="{80D3D1E2-9073-C048-AAF2-51303E2E4ECF}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="15" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{80D3D1E2-9073-C048-AAF2-51303E2E4ECF}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="15" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3153,6 +3314,13 @@
     <dgm:pt modelId="{BD469DE3-7F03-3F40-8853-DA9F29C28469}" type="pres">
       <dgm:prSet presAssocID="{01626F2D-C116-6246-A345-5D5F3EBF6616}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="13" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4346CAC2-F94D-CF48-B7C9-87306FE127A4}" type="pres">
       <dgm:prSet presAssocID="{C5F3E9EA-0100-B74D-A3EF-E640CEBD72F2}" presName="hierRoot3" presStyleCnt="0">
@@ -3167,7 +3335,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C9451A94-8933-6A4A-9586-08C35ADA9D83}" type="pres">
-      <dgm:prSet presAssocID="{C5F3E9EA-0100-B74D-A3EF-E640CEBD72F2}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="16" presStyleCnt="40">
+      <dgm:prSet presAssocID="{C5F3E9EA-0100-B74D-A3EF-E640CEBD72F2}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="16" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3182,7 +3350,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5392253B-3470-CF41-A9EC-8DDBCF8D8C5C}" type="pres">
-      <dgm:prSet presAssocID="{C5F3E9EA-0100-B74D-A3EF-E640CEBD72F2}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="16" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{C5F3E9EA-0100-B74D-A3EF-E640CEBD72F2}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="16" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3203,6 +3371,13 @@
     <dgm:pt modelId="{889F7B09-1BD9-414A-AFE8-D9525D75014F}" type="pres">
       <dgm:prSet presAssocID="{C3ABC4FD-5269-1741-A3D4-F7AF84C9A8B9}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="14" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4FABD3C5-42E6-9543-9DB3-A66F6F6BD868}" type="pres">
       <dgm:prSet presAssocID="{E4ED0CBB-7581-404A-A651-2615B3528EAE}" presName="hierRoot3" presStyleCnt="0">
@@ -3217,7 +3392,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3EC6198D-D583-D549-9926-68B16C1BD20F}" type="pres">
-      <dgm:prSet presAssocID="{E4ED0CBB-7581-404A-A651-2615B3528EAE}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="17" presStyleCnt="40">
+      <dgm:prSet presAssocID="{E4ED0CBB-7581-404A-A651-2615B3528EAE}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="17" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3232,7 +3407,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{509DDD19-A10B-894E-A6CE-2CD42D5266FA}" type="pres">
-      <dgm:prSet presAssocID="{E4ED0CBB-7581-404A-A651-2615B3528EAE}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="17" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{E4ED0CBB-7581-404A-A651-2615B3528EAE}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="17" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3253,6 +3428,13 @@
     <dgm:pt modelId="{F3F4CB4C-59A8-DC40-BA6F-A7461BF1C5F3}" type="pres">
       <dgm:prSet presAssocID="{E7203974-4117-4148-89BB-CD0D6B6D83C5}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="15" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{FD39423E-9ABE-8542-BB50-FF83550FF233}" type="pres">
       <dgm:prSet presAssocID="{9E94AF94-C4D4-9343-BE8D-A8A5054DDD6B}" presName="hierRoot3" presStyleCnt="0">
@@ -3267,7 +3449,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{9139F5E7-A310-AC4E-B18B-1CE09309F2B9}" type="pres">
-      <dgm:prSet presAssocID="{9E94AF94-C4D4-9343-BE8D-A8A5054DDD6B}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="18" presStyleCnt="40">
+      <dgm:prSet presAssocID="{9E94AF94-C4D4-9343-BE8D-A8A5054DDD6B}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="18" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3282,7 +3464,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{90D2635A-EC85-B741-85BA-B45A43A173CC}" type="pres">
-      <dgm:prSet presAssocID="{9E94AF94-C4D4-9343-BE8D-A8A5054DDD6B}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="18" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{9E94AF94-C4D4-9343-BE8D-A8A5054DDD6B}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="18" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3303,6 +3485,13 @@
     <dgm:pt modelId="{53B6567E-1D33-9642-84E8-E591AE7A1817}" type="pres">
       <dgm:prSet presAssocID="{9F9DBA58-9B9E-FD4E-89EC-F16E2FDF3BCF}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="16" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{3FB1490F-785E-C74F-B7DA-6A61EAAB4795}" type="pres">
       <dgm:prSet presAssocID="{FDCC0C92-E67C-5A4C-B26F-12579B562C91}" presName="hierRoot3" presStyleCnt="0">
@@ -3317,7 +3506,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E3C3CA58-A08C-2245-A904-FD0C195AAD1A}" type="pres">
-      <dgm:prSet presAssocID="{FDCC0C92-E67C-5A4C-B26F-12579B562C91}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="19" presStyleCnt="40">
+      <dgm:prSet presAssocID="{FDCC0C92-E67C-5A4C-B26F-12579B562C91}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="19" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3332,7 +3521,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B9570CEA-47F9-3043-9F24-93F6311B0817}" type="pres">
-      <dgm:prSet presAssocID="{FDCC0C92-E67C-5A4C-B26F-12579B562C91}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="19" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{FDCC0C92-E67C-5A4C-B26F-12579B562C91}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="19" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3353,6 +3542,13 @@
     <dgm:pt modelId="{51F1448E-6B7F-3D4F-BF0E-DB07B8FD268F}" type="pres">
       <dgm:prSet presAssocID="{01E52349-E7DA-E04C-B99A-896E430E6F63}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="17" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F4615F92-F6D6-5A40-8E33-67B31F7FA51E}" type="pres">
       <dgm:prSet presAssocID="{7D9C99EE-CFF5-C24D-B52D-296E74E796AE}" presName="hierRoot3" presStyleCnt="0">
@@ -3367,7 +3563,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5BA63115-F5E5-D54E-B9E1-642C23FE3734}" type="pres">
-      <dgm:prSet presAssocID="{7D9C99EE-CFF5-C24D-B52D-296E74E796AE}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="20" presStyleCnt="40">
+      <dgm:prSet presAssocID="{7D9C99EE-CFF5-C24D-B52D-296E74E796AE}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="20" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3382,7 +3578,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D594697C-71C6-0D4D-89FE-1C7875674934}" type="pres">
-      <dgm:prSet presAssocID="{7D9C99EE-CFF5-C24D-B52D-296E74E796AE}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="20" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{7D9C99EE-CFF5-C24D-B52D-296E74E796AE}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="20" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3403,6 +3599,13 @@
     <dgm:pt modelId="{B2DE3E60-6010-7F49-8558-28F52876D1AF}" type="pres">
       <dgm:prSet presAssocID="{44440206-9580-7942-A70C-A8DCFE62030E}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="18" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{439FA53D-17AD-D44F-9F23-D698FD081240}" type="pres">
       <dgm:prSet presAssocID="{4C5E212B-B6E9-4748-9610-D02A0C6D740F}" presName="hierRoot3" presStyleCnt="0">
@@ -3417,7 +3620,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7FAD7C1A-CEF0-264A-86CC-E95C36EE828E}" type="pres">
-      <dgm:prSet presAssocID="{4C5E212B-B6E9-4748-9610-D02A0C6D740F}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="21" presStyleCnt="40">
+      <dgm:prSet presAssocID="{4C5E212B-B6E9-4748-9610-D02A0C6D740F}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="21" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3432,7 +3635,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C05EE72C-5B3E-5743-A06E-F471E7FD622E}" type="pres">
-      <dgm:prSet presAssocID="{4C5E212B-B6E9-4748-9610-D02A0C6D740F}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="21" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{4C5E212B-B6E9-4748-9610-D02A0C6D740F}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="21" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3453,6 +3656,13 @@
     <dgm:pt modelId="{5FC19D7B-7E0E-584D-ADAB-5B248D17BBED}" type="pres">
       <dgm:prSet presAssocID="{BDBBE029-A3D3-3C48-A442-E2E47A5F58A8}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="19" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{BD017465-B9A8-BE44-8B87-9C7DBFBAABF9}" type="pres">
       <dgm:prSet presAssocID="{DD6D10BC-7B77-4D49-97E5-505855D44162}" presName="hierRoot3" presStyleCnt="0">
@@ -3467,7 +3677,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{02493BAD-639A-8B41-8013-F46C0758C6FA}" type="pres">
-      <dgm:prSet presAssocID="{DD6D10BC-7B77-4D49-97E5-505855D44162}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="22" presStyleCnt="40">
+      <dgm:prSet presAssocID="{DD6D10BC-7B77-4D49-97E5-505855D44162}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="22" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3482,7 +3692,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{EEF411AC-A44A-594E-AB90-6653FEC8E56B}" type="pres">
-      <dgm:prSet presAssocID="{DD6D10BC-7B77-4D49-97E5-505855D44162}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="22" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{DD6D10BC-7B77-4D49-97E5-505855D44162}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="22" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3503,6 +3713,13 @@
     <dgm:pt modelId="{3014E2D0-9C28-CF49-98F9-FA41CEE3FD3F}" type="pres">
       <dgm:prSet presAssocID="{8836C959-3B1E-1348-B630-FD10BF3963F7}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="20" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{578594C3-32DF-B94A-B885-04158A33DC3A}" type="pres">
       <dgm:prSet presAssocID="{217EBDD5-650F-5142-BB6D-001DAC4D85A1}" presName="hierRoot3" presStyleCnt="0">
@@ -3517,7 +3734,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{EC18C83C-EDFB-5544-ABA5-89DA490A17C1}" type="pres">
-      <dgm:prSet presAssocID="{217EBDD5-650F-5142-BB6D-001DAC4D85A1}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="23" presStyleCnt="40">
+      <dgm:prSet presAssocID="{217EBDD5-650F-5142-BB6D-001DAC4D85A1}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="23" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3532,7 +3749,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9F471135-2AFC-A343-8E42-B13726432695}" type="pres">
-      <dgm:prSet presAssocID="{217EBDD5-650F-5142-BB6D-001DAC4D85A1}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="23" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{217EBDD5-650F-5142-BB6D-001DAC4D85A1}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="23" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3553,6 +3770,13 @@
     <dgm:pt modelId="{B5101E0D-9443-A241-87A6-8AC4091D0D39}" type="pres">
       <dgm:prSet presAssocID="{BE969C17-8DA4-4642-9089-C88EF86C2EC6}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="21" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{CA923C3B-7722-CF40-8D22-0B1C7687121F}" type="pres">
       <dgm:prSet presAssocID="{C497D304-C1A4-BD46-AA30-8FFF0A1F22B1}" presName="hierRoot3" presStyleCnt="0">
@@ -3567,7 +3791,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5264769D-5BD9-A148-9075-D4667B096EE8}" type="pres">
-      <dgm:prSet presAssocID="{C497D304-C1A4-BD46-AA30-8FFF0A1F22B1}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="24" presStyleCnt="40">
+      <dgm:prSet presAssocID="{C497D304-C1A4-BD46-AA30-8FFF0A1F22B1}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="24" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3582,7 +3806,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1427119A-EE13-B348-BE89-EE531B981D84}" type="pres">
-      <dgm:prSet presAssocID="{C497D304-C1A4-BD46-AA30-8FFF0A1F22B1}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="24" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{C497D304-C1A4-BD46-AA30-8FFF0A1F22B1}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="24" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3603,6 +3827,13 @@
     <dgm:pt modelId="{6CD42C34-578B-EA46-A2B5-0CE4AE533100}" type="pres">
       <dgm:prSet presAssocID="{597276DE-7E85-1540-9DB2-6399332BBF1C}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="22" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A3EDC4E3-D31D-7742-8033-02E01BD9E645}" type="pres">
       <dgm:prSet presAssocID="{BC9A8D9F-2E5F-9544-A71D-01F622BE94A4}" presName="hierRoot3" presStyleCnt="0">
@@ -3617,7 +3848,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5C0963F4-07E1-734F-AD64-E38BF62A5B25}" type="pres">
-      <dgm:prSet presAssocID="{BC9A8D9F-2E5F-9544-A71D-01F622BE94A4}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="25" presStyleCnt="40">
+      <dgm:prSet presAssocID="{BC9A8D9F-2E5F-9544-A71D-01F622BE94A4}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="25" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3632,7 +3863,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{82A4DAF8-2CEC-E347-971B-933AFEB4849E}" type="pres">
-      <dgm:prSet presAssocID="{BC9A8D9F-2E5F-9544-A71D-01F622BE94A4}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="25" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{BC9A8D9F-2E5F-9544-A71D-01F622BE94A4}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="25" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3653,6 +3884,13 @@
     <dgm:pt modelId="{89174E2D-8355-A94E-8D77-1C16A36A0B7C}" type="pres">
       <dgm:prSet presAssocID="{0E7C2159-C479-4D46-9AB0-347CF613D83A}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="23" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9196F6EE-AAF6-C04C-9F0A-B3E5EB35C258}" type="pres">
       <dgm:prSet presAssocID="{57D0A3C5-E7A7-E34A-A30E-DAC6F4A62705}" presName="hierRoot3" presStyleCnt="0">
@@ -3667,7 +3905,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{07698481-C782-8942-8C82-9CBBF6E04FBA}" type="pres">
-      <dgm:prSet presAssocID="{57D0A3C5-E7A7-E34A-A30E-DAC6F4A62705}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="26" presStyleCnt="40">
+      <dgm:prSet presAssocID="{57D0A3C5-E7A7-E34A-A30E-DAC6F4A62705}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="26" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3682,7 +3920,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6D8C07F4-14C6-354B-B2FE-F6B259948E7B}" type="pres">
-      <dgm:prSet presAssocID="{57D0A3C5-E7A7-E34A-A30E-DAC6F4A62705}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="26" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{57D0A3C5-E7A7-E34A-A30E-DAC6F4A62705}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="26" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3703,6 +3941,13 @@
     <dgm:pt modelId="{632D5459-A7B3-F745-9650-4BD3309518D9}" type="pres">
       <dgm:prSet presAssocID="{E3661A1C-BF02-1142-98D0-5B98E0B7FB9B}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="24" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6F0CD9D5-DA4C-2B40-9A27-47346D55D551}" type="pres">
       <dgm:prSet presAssocID="{93C6A22A-57F7-1C44-AF70-F0793EAEBA87}" presName="hierRoot3" presStyleCnt="0">
@@ -3717,7 +3962,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F890C46F-A3AD-4F48-85C0-47078161FA34}" type="pres">
-      <dgm:prSet presAssocID="{93C6A22A-57F7-1C44-AF70-F0793EAEBA87}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="27" presStyleCnt="40">
+      <dgm:prSet presAssocID="{93C6A22A-57F7-1C44-AF70-F0793EAEBA87}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="27" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3732,7 +3977,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E117CFCE-0121-F94D-B2A6-669AD8567EDC}" type="pres">
-      <dgm:prSet presAssocID="{93C6A22A-57F7-1C44-AF70-F0793EAEBA87}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="27" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{93C6A22A-57F7-1C44-AF70-F0793EAEBA87}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="27" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3753,6 +3998,13 @@
     <dgm:pt modelId="{DF6E5DB8-D0AD-FE4E-92E1-D8F078226093}" type="pres">
       <dgm:prSet presAssocID="{F95DACCC-E18F-5E48-938E-7D49A4B1C4C7}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="25" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{0956274C-9C6F-7340-8F2D-354C7200A020}" type="pres">
       <dgm:prSet presAssocID="{A89FCE89-CBD4-AE42-A5AC-E592E49B9964}" presName="hierRoot3" presStyleCnt="0">
@@ -3767,7 +4019,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{AC9633E0-1129-CF4A-975D-070874289BB3}" type="pres">
-      <dgm:prSet presAssocID="{A89FCE89-CBD4-AE42-A5AC-E592E49B9964}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="28" presStyleCnt="40">
+      <dgm:prSet presAssocID="{A89FCE89-CBD4-AE42-A5AC-E592E49B9964}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="28" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3782,7 +4034,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{FFB33A9B-A9B5-E140-AC94-4845AABB6048}" type="pres">
-      <dgm:prSet presAssocID="{A89FCE89-CBD4-AE42-A5AC-E592E49B9964}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="28" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{A89FCE89-CBD4-AE42-A5AC-E592E49B9964}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="28" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3803,6 +4055,13 @@
     <dgm:pt modelId="{85670DC3-0D30-5D4D-AB9D-D540F432760E}" type="pres">
       <dgm:prSet presAssocID="{89BA06B7-2AE4-2E4B-AFC6-53C5D9CCDD95}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="26" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{AF9BD71E-5F24-AC41-95D5-2798DDC66AA6}" type="pres">
       <dgm:prSet presAssocID="{B6ABE769-E14B-BC4E-91CF-3F88BEE965D5}" presName="hierRoot3" presStyleCnt="0">
@@ -3817,7 +4076,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B8A23D85-76FD-214A-94B7-B85CBC35CC76}" type="pres">
-      <dgm:prSet presAssocID="{B6ABE769-E14B-BC4E-91CF-3F88BEE965D5}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="29" presStyleCnt="40">
+      <dgm:prSet presAssocID="{B6ABE769-E14B-BC4E-91CF-3F88BEE965D5}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="29" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3832,7 +4091,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{03217DFE-9285-DF48-AAF0-23CCFA1D3AE5}" type="pres">
-      <dgm:prSet presAssocID="{B6ABE769-E14B-BC4E-91CF-3F88BEE965D5}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="29" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{B6ABE769-E14B-BC4E-91CF-3F88BEE965D5}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="29" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3853,6 +4112,13 @@
     <dgm:pt modelId="{A80246A2-98FE-7A44-885B-9E32CE0DCB3C}" type="pres">
       <dgm:prSet presAssocID="{28F6A739-59B7-4146-B35C-5CEF58D13C66}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="27" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D6395FAF-E5E3-E246-A56C-401305B6DB19}" type="pres">
       <dgm:prSet presAssocID="{405E5291-1F79-384B-9830-46A7E4852F6A}" presName="hierRoot3" presStyleCnt="0">
@@ -3867,7 +4133,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{101CD3BE-1B17-3D43-8489-E997777BB35E}" type="pres">
-      <dgm:prSet presAssocID="{405E5291-1F79-384B-9830-46A7E4852F6A}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="30" presStyleCnt="40">
+      <dgm:prSet presAssocID="{405E5291-1F79-384B-9830-46A7E4852F6A}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="30" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3882,7 +4148,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{0C1D8114-733B-0F4A-BCF6-7F61188E5CB7}" type="pres">
-      <dgm:prSet presAssocID="{405E5291-1F79-384B-9830-46A7E4852F6A}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="30" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{405E5291-1F79-384B-9830-46A7E4852F6A}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="30" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3903,6 +4169,13 @@
     <dgm:pt modelId="{0BDC511B-FEF6-A948-AFB5-B831E7D1CB20}" type="pres">
       <dgm:prSet presAssocID="{95B35F83-3A7E-3348-AFF7-7BB550F480A5}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="28" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A064A612-01EC-A548-BD09-542261E4C9E1}" type="pres">
       <dgm:prSet presAssocID="{9EDE6D3D-30F0-7346-BFCE-0A5ED7ADA30F}" presName="hierRoot3" presStyleCnt="0">
@@ -3917,7 +4190,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A7058EAD-02AD-5643-8A4E-21ADBC8AB604}" type="pres">
-      <dgm:prSet presAssocID="{9EDE6D3D-30F0-7346-BFCE-0A5ED7ADA30F}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="31" presStyleCnt="40">
+      <dgm:prSet presAssocID="{9EDE6D3D-30F0-7346-BFCE-0A5ED7ADA30F}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="31" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3932,7 +4205,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B9C71E19-1844-B240-B9B8-3E953B6E57EC}" type="pres">
-      <dgm:prSet presAssocID="{9EDE6D3D-30F0-7346-BFCE-0A5ED7ADA30F}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="31" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{9EDE6D3D-30F0-7346-BFCE-0A5ED7ADA30F}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="31" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3953,6 +4226,13 @@
     <dgm:pt modelId="{12F0335F-5A5E-6E4C-83D5-60FC67296852}" type="pres">
       <dgm:prSet presAssocID="{174CAB4C-6592-2943-9E81-D79ABCDDD5EB}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="29" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E60DB45E-1C27-E344-B9C3-615FC7AFD09C}" type="pres">
       <dgm:prSet presAssocID="{634D2915-1B87-6F41-8AA7-11AFA03AE320}" presName="hierRoot3" presStyleCnt="0">
@@ -3967,7 +4247,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7CCB52B1-4542-4B4C-AF2F-E93021CD7FE2}" type="pres">
-      <dgm:prSet presAssocID="{634D2915-1B87-6F41-8AA7-11AFA03AE320}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="32" presStyleCnt="40">
+      <dgm:prSet presAssocID="{634D2915-1B87-6F41-8AA7-11AFA03AE320}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="32" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3982,7 +4262,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1C92223F-A6F5-A34A-96DC-0C5933ACDF11}" type="pres">
-      <dgm:prSet presAssocID="{634D2915-1B87-6F41-8AA7-11AFA03AE320}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="32" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{634D2915-1B87-6F41-8AA7-11AFA03AE320}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="32" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4003,6 +4283,13 @@
     <dgm:pt modelId="{49D61E65-234A-8F49-985C-E55E0496BFD1}" type="pres">
       <dgm:prSet presAssocID="{CD365FC9-D912-0845-BE99-A292D1384ADA}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="30" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{015A4616-160A-C74D-AEA8-12F9A111A526}" type="pres">
       <dgm:prSet presAssocID="{56720AC2-33F2-8A4C-8606-320F8E221A1C}" presName="hierRoot3" presStyleCnt="0">
@@ -4017,7 +4304,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1F69B79B-8384-D441-BE9A-D8187C401D00}" type="pres">
-      <dgm:prSet presAssocID="{56720AC2-33F2-8A4C-8606-320F8E221A1C}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="33" presStyleCnt="40">
+      <dgm:prSet presAssocID="{56720AC2-33F2-8A4C-8606-320F8E221A1C}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="33" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -4032,7 +4319,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{EEC08E85-6095-9E41-9116-251A41925C89}" type="pres">
-      <dgm:prSet presAssocID="{56720AC2-33F2-8A4C-8606-320F8E221A1C}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="33" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{56720AC2-33F2-8A4C-8606-320F8E221A1C}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="33" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4053,6 +4340,13 @@
     <dgm:pt modelId="{0DD3C668-0536-E445-B471-1B0916B8DC77}" type="pres">
       <dgm:prSet presAssocID="{401CF23E-8ECD-EB4D-8A80-4664CAF1D461}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="31" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{064D11DD-189A-9344-85F0-E177276CD588}" type="pres">
       <dgm:prSet presAssocID="{D83F5DE6-4069-7E44-98EC-C3B3F02D9212}" presName="hierRoot3" presStyleCnt="0">
@@ -4067,7 +4361,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{79811B6C-2D41-7448-A502-5AC18F110A1E}" type="pres">
-      <dgm:prSet presAssocID="{D83F5DE6-4069-7E44-98EC-C3B3F02D9212}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="34" presStyleCnt="40">
+      <dgm:prSet presAssocID="{D83F5DE6-4069-7E44-98EC-C3B3F02D9212}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="34" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -4082,7 +4376,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{174DC525-7017-EC49-9AF9-4F586C88D61A}" type="pres">
-      <dgm:prSet presAssocID="{D83F5DE6-4069-7E44-98EC-C3B3F02D9212}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="34" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{D83F5DE6-4069-7E44-98EC-C3B3F02D9212}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="34" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4103,6 +4397,13 @@
     <dgm:pt modelId="{0E313494-3667-214E-B174-4A794C37D505}" type="pres">
       <dgm:prSet presAssocID="{6B5988D4-FE7B-3C44-8688-B0AE9F152914}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="32" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{06FB7ED1-A706-134B-83B5-71DA9EC6B19A}" type="pres">
       <dgm:prSet presAssocID="{BE1943A9-B9FA-5443-9147-7618EFDF0887}" presName="hierRoot3" presStyleCnt="0">
@@ -4117,7 +4418,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{CDCFE67A-6E10-714C-8B91-25AE9315E32B}" type="pres">
-      <dgm:prSet presAssocID="{BE1943A9-B9FA-5443-9147-7618EFDF0887}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="35" presStyleCnt="40">
+      <dgm:prSet presAssocID="{BE1943A9-B9FA-5443-9147-7618EFDF0887}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="35" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -4132,7 +4433,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{38CE67DA-8AC8-0D4A-A0AE-9E4AD0FEB3D0}" type="pres">
-      <dgm:prSet presAssocID="{BE1943A9-B9FA-5443-9147-7618EFDF0887}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="35" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{BE1943A9-B9FA-5443-9147-7618EFDF0887}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="35" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4153,6 +4454,13 @@
     <dgm:pt modelId="{24BF484B-6AF0-7D40-AA74-3B005B5818AF}" type="pres">
       <dgm:prSet presAssocID="{5115512A-392E-4C44-B49D-001CE908866F}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="33" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{55795CD2-FA5C-4348-A674-A9DAF50B4F92}" type="pres">
       <dgm:prSet presAssocID="{62091817-2B10-904C-B454-A5759D4FBF38}" presName="hierRoot3" presStyleCnt="0">
@@ -4167,7 +4475,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{46C7554D-3218-8B48-88A9-8D34C5F1E971}" type="pres">
-      <dgm:prSet presAssocID="{62091817-2B10-904C-B454-A5759D4FBF38}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="36" presStyleCnt="40">
+      <dgm:prSet presAssocID="{62091817-2B10-904C-B454-A5759D4FBF38}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="36" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -4182,7 +4490,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1B518194-07CA-B94D-A830-3006485E6D00}" type="pres">
-      <dgm:prSet presAssocID="{62091817-2B10-904C-B454-A5759D4FBF38}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="36" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{62091817-2B10-904C-B454-A5759D4FBF38}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="36" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4203,6 +4511,13 @@
     <dgm:pt modelId="{06FE2AFB-C0A0-D044-B6A7-67F73F5D3DA3}" type="pres">
       <dgm:prSet presAssocID="{0B6ECEA1-2C2D-DA44-B59E-EB1F5265B034}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="34" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{60120644-4E01-6F46-8128-113C8BDFAFCB}" type="pres">
       <dgm:prSet presAssocID="{7741C7B6-9C30-6447-9EF1-9D27801205D9}" presName="hierRoot3" presStyleCnt="0">
@@ -4217,7 +4532,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B618608D-7AD7-9C49-9EC4-26C7D3BD5726}" type="pres">
-      <dgm:prSet presAssocID="{7741C7B6-9C30-6447-9EF1-9D27801205D9}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="37" presStyleCnt="40">
+      <dgm:prSet presAssocID="{7741C7B6-9C30-6447-9EF1-9D27801205D9}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="37" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -4232,7 +4547,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{179BC8B6-FF22-CA40-A588-84AEE9F34BCD}" type="pres">
-      <dgm:prSet presAssocID="{7741C7B6-9C30-6447-9EF1-9D27801205D9}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="37" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{7741C7B6-9C30-6447-9EF1-9D27801205D9}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="37" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4253,6 +4568,13 @@
     <dgm:pt modelId="{060FB004-B11A-D240-B16E-7BB6C2FBCC4F}" type="pres">
       <dgm:prSet presAssocID="{81DB71E8-D10D-BB4E-88F9-6233C3F047CF}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="35" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8B29F951-8517-8B44-A027-C08CABB10128}" type="pres">
       <dgm:prSet presAssocID="{32C90123-344E-804D-A91E-21C1EF501366}" presName="hierRoot3" presStyleCnt="0">
@@ -4267,7 +4589,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B528BBE8-BC90-9447-9F81-937A7D37D38C}" type="pres">
-      <dgm:prSet presAssocID="{32C90123-344E-804D-A91E-21C1EF501366}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="38" presStyleCnt="40">
+      <dgm:prSet presAssocID="{32C90123-344E-804D-A91E-21C1EF501366}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="38" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -4282,7 +4604,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{49BD1A1A-8856-C746-800F-91CEE89B352A}" type="pres">
-      <dgm:prSet presAssocID="{32C90123-344E-804D-A91E-21C1EF501366}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="38" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{32C90123-344E-804D-A91E-21C1EF501366}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="38" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4303,6 +4625,13 @@
     <dgm:pt modelId="{34C9115F-49E5-654E-BFD2-803C9A38F6C8}" type="pres">
       <dgm:prSet presAssocID="{DBC5D1EE-B611-9441-B42E-EF3891670ECB}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="36" presStyleCnt="37"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4E4CED57-8AC7-2948-8913-35BFD19C7A75}" type="pres">
       <dgm:prSet presAssocID="{63899E79-05AA-4042-9838-C582A11E7D99}" presName="hierRoot3" presStyleCnt="0">
@@ -4317,7 +4646,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3580C7A2-7354-4746-A370-18ED38E46B1C}" type="pres">
-      <dgm:prSet presAssocID="{63899E79-05AA-4042-9838-C582A11E7D99}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="39" presStyleCnt="40">
+      <dgm:prSet presAssocID="{63899E79-05AA-4042-9838-C582A11E7D99}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="39" presStyleCnt="41">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -4332,7 +4661,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{CA691CA7-3B38-654F-BA91-8B2DA32F04C2}" type="pres">
-      <dgm:prSet presAssocID="{63899E79-05AA-4042-9838-C582A11E7D99}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="39" presStyleCnt="40"/>
+      <dgm:prSet presAssocID="{63899E79-05AA-4042-9838-C582A11E7D99}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="39" presStyleCnt="41"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -4350,172 +4679,219 @@
       <dgm:prSet presAssocID="{63899E79-05AA-4042-9838-C582A11E7D99}" presName="hierChild7" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
+    <dgm:pt modelId="{348ED077-8DA1-9C41-97D9-587A29C55E06}" type="pres">
+      <dgm:prSet presAssocID="{955B4BFA-7BB0-1444-814B-3CC20D950E0F}" presName="Name111" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{471C6F6D-DC44-064B-A60E-F98382A03DA3}" type="pres">
+      <dgm:prSet presAssocID="{2AC7BF45-BB13-2B49-BE10-2D2ED2A770C5}" presName="hierRoot3" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9FC8B576-4283-9347-93F3-ED4C60DC5F50}" type="pres">
+      <dgm:prSet presAssocID="{2AC7BF45-BB13-2B49-BE10-2D2ED2A770C5}" presName="rootComposite3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1BB511E8-2B8D-B345-A404-0DA5B680B134}" type="pres">
+      <dgm:prSet presAssocID="{2AC7BF45-BB13-2B49-BE10-2D2ED2A770C5}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="40" presStyleCnt="41">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AEF8D581-119C-7943-B670-64BC19D4818A}" type="pres">
+      <dgm:prSet presAssocID="{2AC7BF45-BB13-2B49-BE10-2D2ED2A770C5}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="40" presStyleCnt="41"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BD4D4C48-C6D3-1B4E-B0BE-709BCDCCE85C}" type="pres">
+      <dgm:prSet presAssocID="{2AC7BF45-BB13-2B49-BE10-2D2ED2A770C5}" presName="hierChild6" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C242171E-008A-1E45-98D4-395AF798B74C}" type="pres">
+      <dgm:prSet presAssocID="{2AC7BF45-BB13-2B49-BE10-2D2ED2A770C5}" presName="hierChild7" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{4A456102-02F2-024F-BFF5-3E5E5E65B84E}" type="presOf" srcId="{48643BAB-7807-3240-91F5-5DEF038BB486}" destId="{33D6B3FA-2E13-EB4E-BCAF-1568A14B6534}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C9D0D5D1-AF40-BD45-83E4-495D4DC366E1}" type="presOf" srcId="{0B6ECEA1-2C2D-DA44-B59E-EB1F5265B034}" destId="{06FE2AFB-C0A0-D044-B6A7-67F73F5D3DA3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{44E401E7-BC95-F642-A023-72561EB8F180}" type="presOf" srcId="{FCF6C2CD-760A-0347-811F-98C195F99225}" destId="{692B3688-E37C-FA41-BA5C-C964C14700F4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0C81CA2F-A4CF-9A48-8B51-A3444CEEBF40}" type="presOf" srcId="{C497D304-C1A4-BD46-AA30-8FFF0A1F22B1}" destId="{5264769D-5BD9-A148-9075-D4667B096EE8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{13A92F88-D168-A047-8A06-4305B2381080}" type="presOf" srcId="{E7203974-4117-4148-89BB-CD0D6B6D83C5}" destId="{F3F4CB4C-59A8-DC40-BA6F-A7461BF1C5F3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8A93343F-AA88-7745-B92F-618ACB5C59E7}" type="presOf" srcId="{9F9DBA58-9B9E-FD4E-89EC-F16E2FDF3BCF}" destId="{53B6567E-1D33-9642-84E8-E591AE7A1817}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{97A9F0F4-3B68-254A-B37B-DBF37E4F433A}" srcId="{E4ED0CBB-7581-404A-A651-2615B3528EAE}" destId="{BC9A8D9F-2E5F-9544-A71D-01F622BE94A4}" srcOrd="1" destOrd="0" parTransId="{597276DE-7E85-1540-9DB2-6399332BBF1C}" sibTransId="{3D096F92-FB7D-5E43-9C43-3EB0433FF01F}"/>
+    <dgm:cxn modelId="{493E56D2-CDDF-A040-A016-131A22F01FF2}" type="presOf" srcId="{93C6A22A-57F7-1C44-AF70-F0793EAEBA87}" destId="{E117CFCE-0121-F94D-B2A6-669AD8567EDC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4F87082C-533A-7943-B43B-3C9645061374}" srcId="{A59E496E-FE5F-6C4C-8B67-B72CF1CFCC53}" destId="{9BAB2237-F165-9A4A-9C21-3E22DAA14C4F}" srcOrd="0" destOrd="0" parTransId="{3BE4010D-7CBC-4143-A1D8-C656F9F8AFAD}" sibTransId="{C44E29B6-11D7-EC42-A53E-CA676D642833}"/>
+    <dgm:cxn modelId="{1EF67703-105B-5D46-B068-6147035F454D}" type="presOf" srcId="{E2EC8535-7D4E-A248-92A3-B5ACE610CB1A}" destId="{5CA0A923-914E-8F46-B030-85660BD37343}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AE238A34-6735-0F43-AE55-896A02A34F4E}" type="presOf" srcId="{7D9C99EE-CFF5-C24D-B52D-296E74E796AE}" destId="{D594697C-71C6-0D4D-89FE-1C7875674934}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{70FE7153-E068-184F-B98E-721DFB18EBC6}" srcId="{9BAB2237-F165-9A4A-9C21-3E22DAA14C4F}" destId="{FCF6C2CD-760A-0347-811F-98C195F99225}" srcOrd="0" destOrd="0" parTransId="{908B7F93-D1F0-D246-89A8-AB3367602B53}" sibTransId="{3205DA75-F9ED-474D-991E-00BAC0FF8B1E}"/>
+    <dgm:cxn modelId="{9196B550-FAFA-E140-89C7-2EFE8A29CC4E}" type="presOf" srcId="{7741C7B6-9C30-6447-9EF1-9D27801205D9}" destId="{B618608D-7AD7-9C49-9EC4-26C7D3BD5726}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{60CCFC09-4636-B84A-9131-B2786420EF0A}" type="presOf" srcId="{DE9327E2-91CD-3F46-9A7E-D13B9E0E9656}" destId="{B2ADE3B0-CBED-3A44-A0D2-E859C476FD2F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E260D5C0-F82C-A442-B68F-9F54D4586FCB}" type="presOf" srcId="{95654230-9F36-0740-BBEC-483F0D21D59B}" destId="{A32C358C-6D14-0649-84AB-0052A00E0CD9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A2D23DA5-16BC-3842-862A-DC390F14360E}" type="presOf" srcId="{676BD3E5-73D9-F64B-92A8-E237AD94C1EE}" destId="{350630EE-58E5-F04C-AC1A-4C64196B938E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AC3E1EAC-225F-2247-9F12-BA9CAC4BA959}" type="presOf" srcId="{634D2915-1B87-6F41-8AA7-11AFA03AE320}" destId="{7CCB52B1-4542-4B4C-AF2F-E93021CD7FE2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{161C03D4-A834-2A4E-A70C-5E2B72C67A3E}" srcId="{5F9F8C36-DC09-D148-A3A1-61A2A8EDE1A5}" destId="{E2EC8535-7D4E-A248-92A3-B5ACE610CB1A}" srcOrd="1" destOrd="0" parTransId="{C3388A01-6343-294F-8DAB-A14AC0879EA3}" sibTransId="{D873B9F9-B2F8-2B4C-ACFE-5B90F010A96C}"/>
+    <dgm:cxn modelId="{14547A53-FA28-1740-8BB1-BDC5C93FD523}" type="presOf" srcId="{634D2915-1B87-6F41-8AA7-11AFA03AE320}" destId="{1C92223F-A6F5-A34A-96DC-0C5933ACDF11}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FBAAB824-890D-3944-A152-D512F0BE3B6D}" type="presOf" srcId="{BE1943A9-B9FA-5443-9147-7618EFDF0887}" destId="{38CE67DA-8AC8-0D4A-A0AE-9E4AD0FEB3D0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B1381DD0-08BF-2E4C-B163-B344ED56D27A}" srcId="{79602D73-11B2-B448-A2F7-701D5264B757}" destId="{5F9F8C36-DC09-D148-A3A1-61A2A8EDE1A5}" srcOrd="0" destOrd="0" parTransId="{D68CB686-78F0-B045-B573-D87C3BBB65CF}" sibTransId="{9CB57560-DE99-544E-8853-B612C206D7D6}"/>
+    <dgm:cxn modelId="{979F4D00-70FB-1B45-A46A-40488DB9C7B2}" type="presOf" srcId="{A89FCE89-CBD4-AE42-A5AC-E592E49B9964}" destId="{AC9633E0-1129-CF4A-975D-070874289BB3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{33552898-7BA9-6248-8AD6-F998784115B6}" type="presOf" srcId="{01626F2D-C116-6246-A345-5D5F3EBF6616}" destId="{BD469DE3-7F03-3F40-8853-DA9F29C28469}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6BA69DB9-47B6-1443-81DB-CD4C5AE7BD55}" type="presOf" srcId="{727C5450-4BD0-AF4B-B826-2D2D8FC22A11}" destId="{B75A8D49-AE71-874F-99F2-A59C6C4D7F9E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4E9E9B38-4770-BA4D-9921-26FA1927DCDF}" type="presOf" srcId="{8E1EE23A-AB5B-BD4B-8F2E-39BF6EE09BBD}" destId="{CD85A698-F878-2342-8000-E4F4285D7D37}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4303A74D-CF0C-3141-B9FF-0A0F71CF5F36}" type="presOf" srcId="{DBE5256E-F3FA-1447-891C-07CE2E104D57}" destId="{E88F571A-854C-AC47-953F-4D04625BAA13}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9525739F-C6CC-A147-AED6-4056DDED1BDE}" type="presOf" srcId="{9E94AF94-C4D4-9343-BE8D-A8A5054DDD6B}" destId="{90D2635A-EC85-B741-85BA-B45A43A173CC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3740C138-E464-8948-BCE3-194C766A7728}" type="presOf" srcId="{01E52349-E7DA-E04C-B99A-896E430E6F63}" destId="{51F1448E-6B7F-3D4F-BF0E-DB07B8FD268F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B6477F35-6090-E94A-9AB9-AEC4AA5FF47F}" type="presOf" srcId="{0E7C2159-C479-4D46-9AB0-347CF613D83A}" destId="{89174E2D-8355-A94E-8D77-1C16A36A0B7C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{34DA514E-0194-FB45-90FA-9B8771F2F466}" srcId="{9BAB2237-F165-9A4A-9C21-3E22DAA14C4F}" destId="{E4ED0CBB-7581-404A-A651-2615B3528EAE}" srcOrd="1" destOrd="0" parTransId="{C3ABC4FD-5269-1741-A3D4-F7AF84C9A8B9}" sibTransId="{E94FF274-97C0-8942-8897-ED830CCEE0BB}"/>
+    <dgm:cxn modelId="{FB1116D9-DFB5-3744-8592-52465D028348}" type="presOf" srcId="{C695C4C4-6F92-4B45-8C0A-06386EB397A0}" destId="{80661D37-0894-F04B-9C9E-0700B8CF2364}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F15C6C70-50AB-7245-BA71-011633A41442}" type="presOf" srcId="{95B35F83-3A7E-3348-AFF7-7BB550F480A5}" destId="{0BDC511B-FEF6-A948-AFB5-B831E7D1CB20}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AE9FDFEF-5ECA-2A4F-A7C2-B0A362462876}" type="presOf" srcId="{79602D73-11B2-B448-A2F7-701D5264B757}" destId="{567F9A90-E6CE-2A4E-8E0C-F280195E5CED}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{89ABDDEA-A1C5-2146-9B7C-E32E2CD4FAB0}" type="presOf" srcId="{3BE4010D-7CBC-4143-A1D8-C656F9F8AFAD}" destId="{9EA54BBB-0273-1747-A1C3-0BFD41C2B9AC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5EFE3B7D-3123-5649-8032-CC94A66DCF4F}" type="presOf" srcId="{9E94AF94-C4D4-9343-BE8D-A8A5054DDD6B}" destId="{9139F5E7-A310-AC4E-B18B-1CE09309F2B9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{13B1637B-C682-2C4A-A31E-765DBD3B30F2}" type="presOf" srcId="{B6ABE769-E14B-BC4E-91CF-3F88BEE965D5}" destId="{03217DFE-9285-DF48-AAF0-23CCFA1D3AE5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{12F40942-0746-1B40-BDDE-A96AD4BF0D56}" type="presOf" srcId="{BC9A8D9F-2E5F-9544-A71D-01F622BE94A4}" destId="{5C0963F4-07E1-734F-AD64-E38BF62A5B25}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{38D0B31F-CAB9-F640-9149-C74216079BCA}" type="presOf" srcId="{81DB71E8-D10D-BB4E-88F9-6233C3F047CF}" destId="{060FB004-B11A-D240-B16E-7BB6C2FBCC4F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7F1702D6-CAF3-6440-825B-56BE656D2885}" type="presOf" srcId="{BC9A8D9F-2E5F-9544-A71D-01F622BE94A4}" destId="{82A4DAF8-2CEC-E347-971B-933AFEB4849E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2A7A7AD5-C1AE-4344-A638-9BDE43DB81DF}" type="presOf" srcId="{28F6A739-59B7-4146-B35C-5CEF58D13C66}" destId="{A80246A2-98FE-7A44-885B-9E32CE0DCB3C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FFE36DDC-2C42-D943-A07B-5CF7A8E7AD78}" type="presOf" srcId="{32C90123-344E-804D-A91E-21C1EF501366}" destId="{49BD1A1A-8856-C746-800F-91CEE89B352A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3254A146-D3DC-E846-A0A6-95AC7B2359B7}" srcId="{FDCC0C92-E67C-5A4C-B26F-12579B562C91}" destId="{7D9C99EE-CFF5-C24D-B52D-296E74E796AE}" srcOrd="0" destOrd="0" parTransId="{01E52349-E7DA-E04C-B99A-896E430E6F63}" sibTransId="{8FDB6B3A-8B37-0B42-A6A4-EDE2722AE096}"/>
+    <dgm:cxn modelId="{1977505F-8517-8B44-A115-24D7411F1474}" type="presOf" srcId="{A59E496E-FE5F-6C4C-8B67-B72CF1CFCC53}" destId="{8A61D3F9-8C9D-154D-AB14-AF77FFEA945E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CA9BDD5C-1B80-2545-88B9-1A23676EB9F6}" srcId="{A0A51A2A-71A2-984D-86FF-1A42A10D5AC3}" destId="{AE41CA35-4F4F-3348-A401-EAA6E49A75FC}" srcOrd="0" destOrd="0" parTransId="{2E67D634-786B-9B45-BC6A-FBD11AA5F16B}" sibTransId="{E8BE9584-BB4C-2B4A-8184-9D59ECEB5F81}"/>
+    <dgm:cxn modelId="{27879839-3EAE-E145-8021-F437BC4E4E6C}" type="presOf" srcId="{26BE77B1-2BCC-9F4E-AA76-EBB4A4C0E317}" destId="{8C8238B2-BA6B-C545-848F-C48E08EE9F63}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{71BEBEF9-80AD-754B-BAC5-92A17C918F46}" type="presOf" srcId="{C3ABC4FD-5269-1741-A3D4-F7AF84C9A8B9}" destId="{889F7B09-1BD9-414A-AFE8-D9525D75014F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{14B15751-7FA1-4C4F-ACE6-C3FB7094B5FC}" srcId="{E2EC8535-7D4E-A248-92A3-B5ACE610CB1A}" destId="{A0A51A2A-71A2-984D-86FF-1A42A10D5AC3}" srcOrd="0" destOrd="0" parTransId="{8E1EE23A-AB5B-BD4B-8F2E-39BF6EE09BBD}" sibTransId="{61BD65B2-9718-9047-BE66-747D9A5CD5D8}"/>
+    <dgm:cxn modelId="{7E8CD751-74FC-784D-85AB-5463B3D2AD9C}" type="presOf" srcId="{8CE5F06C-4123-744C-AE0F-B8C8DEEC9D82}" destId="{702EE945-9512-9C40-925B-2DFFD9CBC819}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{943EA676-007B-B748-B196-5FE0CFD736B1}" type="presOf" srcId="{2E67D634-786B-9B45-BC6A-FBD11AA5F16B}" destId="{45FAAEC3-35EE-B441-BC14-7EDA67667DE5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F7936360-16BA-9642-AF8C-02464AE10DCF}" type="presOf" srcId="{FCF6C2CD-760A-0347-811F-98C195F99225}" destId="{8F419E7A-315F-1C48-A278-F72E6FC14400}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6DAD5206-3EA2-2140-84CE-D52EA7FBD1EC}" type="presOf" srcId="{E2EC8535-7D4E-A248-92A3-B5ACE610CB1A}" destId="{10F3BD33-9FA5-4B44-8E3A-D6D6C8DD7D35}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{363BFE73-83FF-504D-998D-58B37FC8FB1A}" srcId="{D83F5DE6-4069-7E44-98EC-C3B3F02D9212}" destId="{62091817-2B10-904C-B454-A5759D4FBF38}" srcOrd="1" destOrd="0" parTransId="{5115512A-392E-4C44-B49D-001CE908866F}" sibTransId="{3C05D037-B276-E144-AABD-0F8147B35D30}"/>
+    <dgm:cxn modelId="{100E11F5-553A-E140-9642-4CB1B64BB646}" srcId="{AEBF4446-075B-CB47-B91B-4EB37B32D182}" destId="{FB8F5E77-770B-5045-AC10-C69DC143C0E4}" srcOrd="0" destOrd="0" parTransId="{C695C4C4-6F92-4B45-8C0A-06386EB397A0}" sibTransId="{42613154-E21F-AE42-BF4F-99AA234F096D}"/>
+    <dgm:cxn modelId="{C8CB3E13-5894-0A47-84E1-659C55B35295}" srcId="{A59E496E-FE5F-6C4C-8B67-B72CF1CFCC53}" destId="{B6ABE769-E14B-BC4E-91CF-3F88BEE965D5}" srcOrd="2" destOrd="0" parTransId="{89BA06B7-2AE4-2E4B-AFC6-53C5D9CCDD95}" sibTransId="{D0F5F489-764E-494F-842B-E9D29F2B85CF}"/>
+    <dgm:cxn modelId="{7CC6DC0C-27D8-B844-8846-ED5DC7ABFDC0}" type="presOf" srcId="{7D9C99EE-CFF5-C24D-B52D-296E74E796AE}" destId="{5BA63115-F5E5-D54E-B9E1-642C23FE3734}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8B06EC1D-D75F-D14C-A99B-3CA2A001FD50}" type="presOf" srcId="{A0A51A2A-71A2-984D-86FF-1A42A10D5AC3}" destId="{52931A2F-8471-3945-B015-857D8B576A22}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F4C44F52-D865-5842-B8B6-CAD6A13F5177}" type="presOf" srcId="{2A2DA83D-CDA2-764F-9B02-7CC661E15BBE}" destId="{7F03017C-9FC7-7541-ABB9-8EFF3981B9B8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BF5DA366-0067-EA44-A75C-95BBC9395E33}" srcId="{E4ED0CBB-7581-404A-A651-2615B3528EAE}" destId="{9E94AF94-C4D4-9343-BE8D-A8A5054DDD6B}" srcOrd="0" destOrd="0" parTransId="{E7203974-4117-4148-89BB-CD0D6B6D83C5}" sibTransId="{40222EFE-D35D-6843-9EED-6587F8204F35}"/>
+    <dgm:cxn modelId="{549EF29E-FCB6-2E4E-9CF0-394113F84981}" srcId="{62091817-2B10-904C-B454-A5759D4FBF38}" destId="{32C90123-344E-804D-A91E-21C1EF501366}" srcOrd="1" destOrd="0" parTransId="{81DB71E8-D10D-BB4E-88F9-6233C3F047CF}" sibTransId="{EF3E7574-E384-F249-9D55-E17844E2A523}"/>
+    <dgm:cxn modelId="{1851D906-521C-7746-8366-D43E43EC01D1}" type="presOf" srcId="{FDCC0C92-E67C-5A4C-B26F-12579B562C91}" destId="{B9570CEA-47F9-3043-9F24-93F6311B0817}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9E7991A3-201E-8948-8DA5-FB4573ABD5D4}" srcId="{A59E496E-FE5F-6C4C-8B67-B72CF1CFCC53}" destId="{A89FCE89-CBD4-AE42-A5AC-E592E49B9964}" srcOrd="1" destOrd="0" parTransId="{F95DACCC-E18F-5E48-938E-7D49A4B1C4C7}" sibTransId="{C90E9E1D-0580-D24B-B5E7-36DD1B097A73}"/>
+    <dgm:cxn modelId="{C2BF21C1-6B17-0149-84AF-6D631120A741}" srcId="{62091817-2B10-904C-B454-A5759D4FBF38}" destId="{7741C7B6-9C30-6447-9EF1-9D27801205D9}" srcOrd="0" destOrd="0" parTransId="{0B6ECEA1-2C2D-DA44-B59E-EB1F5265B034}" sibTransId="{CF072B1B-C79A-FC4F-891B-39DE68F15872}"/>
+    <dgm:cxn modelId="{EBF7A0E3-CA10-C643-8748-1D028E959221}" srcId="{FDCC0C92-E67C-5A4C-B26F-12579B562C91}" destId="{4C5E212B-B6E9-4748-9610-D02A0C6D740F}" srcOrd="1" destOrd="0" parTransId="{44440206-9580-7942-A70C-A8DCFE62030E}" sibTransId="{90BC3258-06EA-174D-81DB-4F08DE63F599}"/>
     <dgm:cxn modelId="{3ED12D30-7997-0846-98F4-09F12A33D12F}" type="presOf" srcId="{6CCF7D33-F5D5-904E-8894-C59F7FC36E5C}" destId="{00627417-E916-FA40-8758-5CA68638FA5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0C81CA2F-A4CF-9A48-8B51-A3444CEEBF40}" type="presOf" srcId="{C497D304-C1A4-BD46-AA30-8FFF0A1F22B1}" destId="{5264769D-5BD9-A148-9075-D4667B096EE8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E30CE565-374D-AE4C-B37A-C80B6168BBB5}" srcId="{9EDE6D3D-30F0-7346-BFCE-0A5ED7ADA30F}" destId="{56720AC2-33F2-8A4C-8606-320F8E221A1C}" srcOrd="1" destOrd="0" parTransId="{CD365FC9-D912-0845-BE99-A292D1384ADA}" sibTransId="{662BDE18-0D96-5546-96BA-D940AFFE25C2}"/>
-    <dgm:cxn modelId="{5EFE3B7D-3123-5649-8032-CC94A66DCF4F}" type="presOf" srcId="{9E94AF94-C4D4-9343-BE8D-A8A5054DDD6B}" destId="{9139F5E7-A310-AC4E-B18B-1CE09309F2B9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8B06EC1D-D75F-D14C-A99B-3CA2A001FD50}" type="presOf" srcId="{A0A51A2A-71A2-984D-86FF-1A42A10D5AC3}" destId="{52931A2F-8471-3945-B015-857D8B576A22}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3F17C999-3823-8247-B127-B9AB4324AE20}" srcId="{405E5291-1F79-384B-9830-46A7E4852F6A}" destId="{9EDE6D3D-30F0-7346-BFCE-0A5ED7ADA30F}" srcOrd="0" destOrd="0" parTransId="{95B35F83-3A7E-3348-AFF7-7BB550F480A5}" sibTransId="{7E599CD5-8E38-0E43-992F-780F6EEB8651}"/>
+    <dgm:cxn modelId="{1A8AF138-AB6C-AC47-AA13-E4DFD24FFDF1}" type="presOf" srcId="{C3388A01-6343-294F-8DAB-A14AC0879EA3}" destId="{D386645B-FD3D-414D-A763-C0EF96BF3394}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{58B1FF45-102B-954F-878B-3A71B38AA25F}" type="presOf" srcId="{BE1943A9-B9FA-5443-9147-7618EFDF0887}" destId="{CDCFE67A-6E10-714C-8B91-25AE9315E32B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{148BE738-D5DA-CF42-A69C-35B818B40B2A}" type="presOf" srcId="{62091817-2B10-904C-B454-A5759D4FBF38}" destId="{46C7554D-3218-8B48-88A9-8D34C5F1E971}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3DB680F2-0A44-9244-9521-2D1B78455BDB}" srcId="{9EDE6D3D-30F0-7346-BFCE-0A5ED7ADA30F}" destId="{634D2915-1B87-6F41-8AA7-11AFA03AE320}" srcOrd="0" destOrd="0" parTransId="{174CAB4C-6592-2943-9E81-D79ABCDDD5EB}" sibTransId="{93B57424-260E-1641-8CE0-A268A9835011}"/>
     <dgm:cxn modelId="{3C667D75-0D0F-2043-A63E-B8FF58DFDB7B}" type="presOf" srcId="{80D3D1E2-9073-C048-AAF2-51303E2E4ECF}" destId="{31615660-F132-3C49-B3B4-7DD2F5965CC0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8709F35A-9D43-994B-8C29-BFE91AF8CC27}" type="presOf" srcId="{9EDE6D3D-30F0-7346-BFCE-0A5ED7ADA30F}" destId="{B9C71E19-1844-B240-B9B8-3E953B6E57EC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7FF569CE-303F-1942-83FE-6361A68DE18A}" type="presOf" srcId="{9BAB2237-F165-9A4A-9C21-3E22DAA14C4F}" destId="{1A36237F-885D-9644-A72C-B998CE8310AC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{00A42C37-EBC3-1249-B75D-649786D48EA3}" type="presOf" srcId="{9BAB2237-F165-9A4A-9C21-3E22DAA14C4F}" destId="{A33E0EF3-98D8-B843-90D5-91EA62DB027B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{82E92DED-2944-B349-8F47-98DF7B12F0ED}" type="presOf" srcId="{57D0A3C5-E7A7-E34A-A30E-DAC6F4A62705}" destId="{6D8C07F4-14C6-354B-B2FE-F6B259948E7B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{51C32C02-019A-0B42-9D77-7E8845A92DDB}" srcId="{9E94AF94-C4D4-9343-BE8D-A8A5054DDD6B}" destId="{DD6D10BC-7B77-4D49-97E5-505855D44162}" srcOrd="1" destOrd="0" parTransId="{BDBBE029-A3D3-3C48-A442-E2E47A5F58A8}" sibTransId="{B39374EA-6144-7C4F-A23D-1A50EC1F252F}"/>
+    <dgm:cxn modelId="{FEC14BA3-3840-3443-8ADE-6F555579BD03}" type="presOf" srcId="{AE6848BE-6B67-2145-8720-BEF970FB5FF7}" destId="{502F7D43-040B-6F46-BB75-6D60B24AAAEC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DA4F9D0C-52FF-8A4C-B793-C08AE166989A}" type="presOf" srcId="{93C6A22A-57F7-1C44-AF70-F0793EAEBA87}" destId="{F890C46F-A3AD-4F48-85C0-47078161FA34}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{74D567E9-52EC-244B-AC68-BFDA16E59673}" type="presOf" srcId="{8CE5F06C-4123-744C-AE0F-B8C8DEEC9D82}" destId="{30C235B5-1EB0-E145-A594-64C466D7B052}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{61262FA1-3D2C-C34B-8D7E-8F796087A668}" type="presOf" srcId="{401CF23E-8ECD-EB4D-8A80-4664CAF1D461}" destId="{0DD3C668-0536-E445-B471-1B0916B8DC77}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EA44CBC8-AE52-1B49-B74E-6AB5A4EA3804}" type="presOf" srcId="{4C5E212B-B6E9-4748-9610-D02A0C6D740F}" destId="{C05EE72C-5B3E-5743-A06E-F471E7FD622E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{596B040B-F6ED-224D-ACAB-768D3ECDAAD9}" type="presOf" srcId="{D83F5DE6-4069-7E44-98EC-C3B3F02D9212}" destId="{174DC525-7017-EC49-9AF9-4F586C88D61A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{932C06FF-5E8E-B04E-985E-4876CAFDBEB2}" srcId="{5F9F8C36-DC09-D148-A3A1-61A2A8EDE1A5}" destId="{AEBF4446-075B-CB47-B91B-4EB37B32D182}" srcOrd="0" destOrd="0" parTransId="{CAC9110F-3BE7-064E-A818-0BDEFD48FD99}" sibTransId="{C07E4112-6415-E140-9E8F-128BC4E59222}"/>
+    <dgm:cxn modelId="{DFB6045A-B2C2-8042-A386-48CD2848CF78}" type="presOf" srcId="{405E5291-1F79-384B-9830-46A7E4852F6A}" destId="{0C1D8114-733B-0F4A-BCF6-7F61188E5CB7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9EB7F65C-1A4B-534C-AC6B-A2C2C5F19F2C}" type="presOf" srcId="{E4ED0CBB-7581-404A-A651-2615B3528EAE}" destId="{509DDD19-A10B-894E-A6CE-2CD42D5266FA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{A269C5D7-1E1A-4841-89B5-D3C3048228BF}" type="presOf" srcId="{57D0A3C5-E7A7-E34A-A30E-DAC6F4A62705}" destId="{07698481-C782-8942-8C82-9CBBF6E04FBA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{A94822BA-F9CF-B74F-B4D2-9719F27E7706}" type="presOf" srcId="{32C90123-344E-804D-A91E-21C1EF501366}" destId="{B528BBE8-BC90-9447-9F81-937A7D37D38C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C9D0D5D1-AF40-BD45-83E4-495D4DC366E1}" type="presOf" srcId="{0B6ECEA1-2C2D-DA44-B59E-EB1F5265B034}" destId="{06FE2AFB-C0A0-D044-B6A7-67F73F5D3DA3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F4C44F52-D865-5842-B8B6-CAD6A13F5177}" type="presOf" srcId="{2A2DA83D-CDA2-764F-9B02-7CC661E15BBE}" destId="{7F03017C-9FC7-7541-ABB9-8EFF3981B9B8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{05A5694B-E8C4-2F4B-82C0-8C0C8333E660}" type="presOf" srcId="{FB8F5E77-770B-5045-AC10-C69DC143C0E4}" destId="{1A094F09-21A9-2446-9C87-D6568214B312}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5AC185F6-7DCE-0146-ABE0-9227BAFCF3D5}" srcId="{676BD3E5-73D9-F64B-92A8-E237AD94C1EE}" destId="{DBE5256E-F3FA-1447-891C-07CE2E104D57}" srcOrd="0" destOrd="0" parTransId="{AE6848BE-6B67-2145-8720-BEF970FB5FF7}" sibTransId="{3784D1EB-A3ED-DF46-9DCC-E4634A395772}"/>
+    <dgm:cxn modelId="{9A413C49-F184-D04A-A23C-84A22211B126}" srcId="{E2EC8535-7D4E-A248-92A3-B5ACE610CB1A}" destId="{676BD3E5-73D9-F64B-92A8-E237AD94C1EE}" srcOrd="1" destOrd="0" parTransId="{DE9327E2-91CD-3F46-9A7E-D13B9E0E9656}" sibTransId="{388C85B6-F431-7D47-84E3-63D5245B92FA}"/>
+    <dgm:cxn modelId="{2F8B36D8-7B0C-2C43-9896-EF8F627AAC2E}" type="presOf" srcId="{2AC7BF45-BB13-2B49-BE10-2D2ED2A770C5}" destId="{1BB511E8-2B8D-B345-A404-0DA5B680B134}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A8FDE793-E3BC-5B4B-A5FB-B05A10EB7708}" type="presOf" srcId="{DBE5256E-F3FA-1447-891C-07CE2E104D57}" destId="{CF4CC3CF-EF1C-A647-94A9-53BB31527141}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{941F4EC7-275D-CB4E-BA71-E8EB3587C363}" srcId="{A0A51A2A-71A2-984D-86FF-1A42A10D5AC3}" destId="{8CE5F06C-4123-744C-AE0F-B8C8DEEC9D82}" srcOrd="1" destOrd="0" parTransId="{6CCF7D33-F5D5-904E-8894-C59F7FC36E5C}" sibTransId="{B82CA4A0-ED80-FC4B-856D-459AA485FA3C}"/>
+    <dgm:cxn modelId="{E11B4328-675D-4E4C-BDBA-14CA2304C87D}" srcId="{405E5291-1F79-384B-9830-46A7E4852F6A}" destId="{D83F5DE6-4069-7E44-98EC-C3B3F02D9212}" srcOrd="1" destOrd="0" parTransId="{401CF23E-8ECD-EB4D-8A80-4664CAF1D461}" sibTransId="{9CABD585-24FB-394D-8B83-3F15AB6A4C0D}"/>
+    <dgm:cxn modelId="{7A944715-D57C-B243-8A65-5A11D2D9B495}" type="presOf" srcId="{4C5E212B-B6E9-4748-9610-D02A0C6D740F}" destId="{7FAD7C1A-CEF0-264A-86CC-E95C36EE828E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{87BAF360-6266-1342-9440-84C2A02567A1}" type="presOf" srcId="{E3661A1C-BF02-1142-98D0-5B98E0B7FB9B}" destId="{632D5459-A7B3-F745-9650-4BD3309518D9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1E3CAFB5-BD18-434E-9A33-5143F5BF7CBF}" type="presOf" srcId="{89BA06B7-2AE4-2E4B-AFC6-53C5D9CCDD95}" destId="{85670DC3-0D30-5D4D-AB9D-D540F432760E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5ECA6411-5F5A-5E48-AF9B-16FD010C7CB2}" type="presOf" srcId="{80D3D1E2-9073-C048-AAF2-51303E2E4ECF}" destId="{128F6B90-A50A-1C44-A410-1CC988237174}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{158872CD-2A75-FC49-9D73-A7EA2D3E070D}" srcId="{D83F5DE6-4069-7E44-98EC-C3B3F02D9212}" destId="{BE1943A9-B9FA-5443-9147-7618EFDF0887}" srcOrd="0" destOrd="0" parTransId="{6B5988D4-FE7B-3C44-8688-B0AE9F152914}" sibTransId="{063F13E6-2567-DC4D-93B7-89C34DCEFB3C}"/>
+    <dgm:cxn modelId="{32BB3350-B3BC-8642-84A5-28BAFB8A9EDA}" type="presOf" srcId="{56720AC2-33F2-8A4C-8606-320F8E221A1C}" destId="{EEC08E85-6095-9E41-9116-251A41925C89}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D2CF0766-6CE9-044B-81F6-E7BCD2F88BF5}" type="presOf" srcId="{597276DE-7E85-1540-9DB2-6399332BBF1C}" destId="{6CD42C34-578B-EA46-A2B5-0CE4AE533100}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7DCD4E8C-1DB0-C74C-9EE4-20C5BE964A98}" type="presOf" srcId="{A0A51A2A-71A2-984D-86FF-1A42A10D5AC3}" destId="{96039AA3-075B-EA40-9C29-3D06574FDD82}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A02F12AB-66CF-ED4A-B1B4-C1E23E07C475}" type="presOf" srcId="{AE41CA35-4F4F-3348-A401-EAA6E49A75FC}" destId="{48A25236-973E-BC4F-BDF9-5F0D8C3266FC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{669F0667-24B0-3A47-83A9-2675087EBD1F}" type="presOf" srcId="{F95DACCC-E18F-5E48-938E-7D49A4B1C4C7}" destId="{DF6E5DB8-D0AD-FE4E-92E1-D8F078226093}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5CC441F5-0E4F-2C48-AEED-0A2B5FD35460}" type="presOf" srcId="{63899E79-05AA-4042-9838-C582A11E7D99}" destId="{CA691CA7-3B38-654F-BA91-8B2DA32F04C2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E822EC2E-F41A-C345-857F-85B397368603}" type="presOf" srcId="{5F9F8C36-DC09-D148-A3A1-61A2A8EDE1A5}" destId="{90F32754-9278-B54E-965F-B1D3E23247DE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E30CE565-374D-AE4C-B37A-C80B6168BBB5}" srcId="{9EDE6D3D-30F0-7346-BFCE-0A5ED7ADA30F}" destId="{56720AC2-33F2-8A4C-8606-320F8E221A1C}" srcOrd="1" destOrd="0" parTransId="{CD365FC9-D912-0845-BE99-A292D1384ADA}" sibTransId="{662BDE18-0D96-5546-96BA-D940AFFE25C2}"/>
+    <dgm:cxn modelId="{28705467-323D-CF4B-A35C-FDD3D7FB7124}" type="presOf" srcId="{BDBBE029-A3D3-3C48-A442-E2E47A5F58A8}" destId="{5FC19D7B-7E0E-584D-ADAB-5B248D17BBED}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D5348E9C-2186-EA44-A598-6C085E33E0F0}" type="presOf" srcId="{00B34B9A-7857-BB49-97ED-26F372B163A5}" destId="{0781DECD-6C6E-C345-807E-C46093D21C62}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{82710531-0DE1-6342-BF23-1C1F73B53A47}" type="presOf" srcId="{48643BAB-7807-3240-91F5-5DEF038BB486}" destId="{BE2AE1AF-EFB1-3C4D-B666-EBE1B65C89CC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E5A8606D-8975-E147-8723-1F8C74BE6867}" type="presOf" srcId="{63899E79-05AA-4042-9838-C582A11E7D99}" destId="{3580C7A2-7354-4746-A370-18ED38E46B1C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{64676B1D-A345-D347-AF30-60BDF9DB85C6}" type="presOf" srcId="{9EDE6D3D-30F0-7346-BFCE-0A5ED7ADA30F}" destId="{A7058EAD-02AD-5643-8A4E-21ADBC8AB604}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1D0730C6-E7CE-7247-8532-5ADC93C48202}" srcId="{9E94AF94-C4D4-9343-BE8D-A8A5054DDD6B}" destId="{FDCC0C92-E67C-5A4C-B26F-12579B562C91}" srcOrd="0" destOrd="0" parTransId="{9F9DBA58-9B9E-FD4E-89EC-F16E2FDF3BCF}" sibTransId="{495AA93D-E0E1-3E4F-9DD4-62ADF6971E26}"/>
+    <dgm:cxn modelId="{B48E2856-3EF5-B54B-B10A-013F9FD467DF}" type="presOf" srcId="{7D582346-277F-874D-B797-796D26052034}" destId="{1EBCFEFC-05FB-C944-9159-90AB8B642FE9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2E738CF6-7AF3-9946-A2A1-718366509043}" srcId="{BC9A8D9F-2E5F-9544-A71D-01F622BE94A4}" destId="{93C6A22A-57F7-1C44-AF70-F0793EAEBA87}" srcOrd="1" destOrd="0" parTransId="{E3661A1C-BF02-1142-98D0-5B98E0B7FB9B}" sibTransId="{71FFD8C6-4262-D849-AD74-FC8BEB2FC417}"/>
+    <dgm:cxn modelId="{8281478A-4C4E-2C4C-B821-E6C367D40906}" type="presOf" srcId="{AEBF4446-075B-CB47-B91B-4EB37B32D182}" destId="{E2C3C3F1-76BA-C24D-9356-572D6C751403}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B61FC046-C2BA-D344-9239-A9E77703D896}" type="presOf" srcId="{DD6D10BC-7B77-4D49-97E5-505855D44162}" destId="{02493BAD-639A-8B41-8013-F46C0758C6FA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9D0640AD-2E50-D74B-8F32-9B669FA7069D}" type="presOf" srcId="{955B4BFA-7BB0-1444-814B-3CC20D950E0F}" destId="{348ED077-8DA1-9C41-97D9-587A29C55E06}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D2087F92-3587-3346-A53E-F5250A237D3B}" srcId="{2A2DA83D-CDA2-764F-9B02-7CC661E15BBE}" destId="{48643BAB-7807-3240-91F5-5DEF038BB486}" srcOrd="0" destOrd="0" parTransId="{BBB2DE39-17F3-7343-9B2F-79C363F93867}" sibTransId="{7F8820E5-B407-414B-AE2B-1427719280A3}"/>
+    <dgm:cxn modelId="{68A2B1CD-836B-C747-993D-99339E2BD6D1}" type="presOf" srcId="{44440206-9580-7942-A70C-A8DCFE62030E}" destId="{B2DE3E60-6010-7F49-8558-28F52876D1AF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F2B7D04A-23DC-2C4D-9B41-3B333112A5DF}" type="presOf" srcId="{A89FCE89-CBD4-AE42-A5AC-E592E49B9964}" destId="{FFB33A9B-A9B5-E140-AC94-4845AABB6048}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AE36D8C8-B93E-0747-B984-92F335E3A4EB}" type="presOf" srcId="{E4ED0CBB-7581-404A-A651-2615B3528EAE}" destId="{3EC6198D-D583-D549-9926-68B16C1BD20F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AE3AD53F-CC6B-E24D-8301-5A653A7550FF}" type="presOf" srcId="{03422D19-D5F2-4D4F-95FE-CE35FE6C2848}" destId="{4D062FB9-F612-8147-BF29-B905BDE67D11}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E25A178C-F7F4-A649-A540-D44D8B1804E6}" srcId="{676BD3E5-73D9-F64B-92A8-E237AD94C1EE}" destId="{95654230-9F36-0740-BBEC-483F0D21D59B}" srcOrd="1" destOrd="0" parTransId="{7D582346-277F-874D-B797-796D26052034}" sibTransId="{9D8224AB-55B1-D948-BFD6-A56867E88703}"/>
+    <dgm:cxn modelId="{A7C67235-03D7-0841-9486-F5DC58EB2182}" type="presOf" srcId="{676BD3E5-73D9-F64B-92A8-E237AD94C1EE}" destId="{6FD374EA-C12D-D14F-A6A9-D3907D7ECB87}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{352C113B-8628-D04E-989E-2627559BBEFE}" srcId="{48643BAB-7807-3240-91F5-5DEF038BB486}" destId="{2AC7BF45-BB13-2B49-BE10-2D2ED2A770C5}" srcOrd="1" destOrd="0" parTransId="{955B4BFA-7BB0-1444-814B-3CC20D950E0F}" sibTransId="{F2BAF7B8-ADE0-8948-9B61-2721A2368048}"/>
+    <dgm:cxn modelId="{2980D8E3-BDFF-7747-B535-6106C7C2A63C}" srcId="{DD6D10BC-7B77-4D49-97E5-505855D44162}" destId="{217EBDD5-650F-5142-BB6D-001DAC4D85A1}" srcOrd="0" destOrd="0" parTransId="{8836C959-3B1E-1348-B630-FD10BF3963F7}" sibTransId="{D96BB800-EB93-2D48-A2F2-33D4C207776D}"/>
+    <dgm:cxn modelId="{2AC9ABB4-B5B2-7941-912D-37BF7093E769}" type="presOf" srcId="{DBC5D1EE-B611-9441-B42E-EF3891670ECB}" destId="{34C9115F-49E5-654E-BFD2-803C9A38F6C8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{21A59127-0F77-4949-82CA-6CBC3E1F1B32}" srcId="{D83F5DE6-4069-7E44-98EC-C3B3F02D9212}" destId="{63899E79-05AA-4042-9838-C582A11E7D99}" srcOrd="2" destOrd="0" parTransId="{DBC5D1EE-B611-9441-B42E-EF3891670ECB}" sibTransId="{F7BE6B11-B2D3-2147-89FE-A28A452E5EA3}"/>
+    <dgm:cxn modelId="{5F4140C0-8146-954D-8936-77E17F75E98E}" type="presOf" srcId="{E6CCC3D2-7338-E04C-97E1-6E9C3C0D79BD}" destId="{BE0CC3ED-CD89-F245-B952-8DE6214A5D2A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{1C4F2480-9672-5C4B-A9DF-7AB76DC809A0}" type="presOf" srcId="{CD365FC9-D912-0845-BE99-A292D1384ADA}" destId="{49D61E65-234A-8F49-985C-E55E0496BFD1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{549EF29E-FCB6-2E4E-9CF0-394113F84981}" srcId="{62091817-2B10-904C-B454-A5759D4FBF38}" destId="{32C90123-344E-804D-A91E-21C1EF501366}" srcOrd="1" destOrd="0" parTransId="{81DB71E8-D10D-BB4E-88F9-6233C3F047CF}" sibTransId="{EF3E7574-E384-F249-9D55-E17844E2A523}"/>
-    <dgm:cxn modelId="{4303A74D-CF0C-3141-B9FF-0A0F71CF5F36}" type="presOf" srcId="{DBE5256E-F3FA-1447-891C-07CE2E104D57}" destId="{E88F571A-854C-AC47-953F-4D04625BAA13}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{25CFD22C-EC72-C94A-AC95-2B5EA6682B41}" type="presOf" srcId="{405E5291-1F79-384B-9830-46A7E4852F6A}" destId="{101CD3BE-1B17-3D43-8489-E997777BB35E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5AC185F6-7DCE-0146-ABE0-9227BAFCF3D5}" srcId="{676BD3E5-73D9-F64B-92A8-E237AD94C1EE}" destId="{DBE5256E-F3FA-1447-891C-07CE2E104D57}" srcOrd="0" destOrd="0" parTransId="{AE6848BE-6B67-2145-8720-BEF970FB5FF7}" sibTransId="{3784D1EB-A3ED-DF46-9DCC-E4634A395772}"/>
-    <dgm:cxn modelId="{943EA676-007B-B748-B196-5FE0CFD736B1}" type="presOf" srcId="{2E67D634-786B-9B45-BC6A-FBD11AA5F16B}" destId="{45FAAEC3-35EE-B441-BC14-7EDA67667DE5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{13B1637B-C682-2C4A-A31E-765DBD3B30F2}" type="presOf" srcId="{B6ABE769-E14B-BC4E-91CF-3F88BEE965D5}" destId="{03217DFE-9285-DF48-AAF0-23CCFA1D3AE5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{AE238A34-6735-0F43-AE55-896A02A34F4E}" type="presOf" srcId="{7D9C99EE-CFF5-C24D-B52D-296E74E796AE}" destId="{D594697C-71C6-0D4D-89FE-1C7875674934}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{24C8F0CA-048F-8C49-B67A-E2D20412F3C3}" type="presOf" srcId="{6B5988D4-FE7B-3C44-8688-B0AE9F152914}" destId="{0E313494-3667-214E-B174-4A794C37D505}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{665BE8AB-60F7-B44D-89EE-978497D9BCC2}" srcId="{FCF6C2CD-760A-0347-811F-98C195F99225}" destId="{C5F3E9EA-0100-B74D-A3EF-E640CEBD72F2}" srcOrd="1" destOrd="0" parTransId="{01626F2D-C116-6246-A345-5D5F3EBF6616}" sibTransId="{C0D59139-010C-374A-9859-C228419F6C15}"/>
+    <dgm:cxn modelId="{B4F9C895-75B1-7841-84E4-7F7EBF0378F2}" type="presOf" srcId="{95654230-9F36-0740-BBEC-483F0D21D59B}" destId="{4E1F02F2-F22C-E040-B694-36AF6746ADA9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6BBDCC87-C556-AB4C-BCDB-DBE2FEF7AFD0}" srcId="{AEBF4446-075B-CB47-B91B-4EB37B32D182}" destId="{03422D19-D5F2-4D4F-95FE-CE35FE6C2848}" srcOrd="1" destOrd="0" parTransId="{727C5450-4BD0-AF4B-B826-2D2D8FC22A11}" sibTransId="{8E872ACB-3A8B-4C4E-AB63-17BAA4F28188}"/>
+    <dgm:cxn modelId="{5BB03B8C-77A9-C64C-83CC-2031FB4978B7}" type="presOf" srcId="{5115512A-392E-4C44-B49D-001CE908866F}" destId="{24BF484B-6AF0-7D40-AA74-3B005B5818AF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D3FB9A5D-1FD3-3B45-A758-363DC11241CD}" type="presOf" srcId="{D68CB686-78F0-B045-B573-D87C3BBB65CF}" destId="{702F561C-3B1D-3F43-AF23-D48DA05FF27B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9232D172-67E3-E44C-AE68-0E5DE50CCE4E}" type="presOf" srcId="{56720AC2-33F2-8A4C-8606-320F8E221A1C}" destId="{1F69B79B-8384-D441-BE9A-D8187C401D00}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4FA31E93-192F-DC46-8B93-DE36937C0CBA}" type="presOf" srcId="{5F9F8C36-DC09-D148-A3A1-61A2A8EDE1A5}" destId="{36F9256E-EF1E-1649-95C3-EC3394BE632E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C72C0BDF-D080-824D-A0CB-5C73F8620D45}" type="presOf" srcId="{BE969C17-8DA4-4642-9089-C88EF86C2EC6}" destId="{B5101E0D-9443-A241-87A6-8AC4091D0D39}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7FF569CE-303F-1942-83FE-6361A68DE18A}" type="presOf" srcId="{9BAB2237-F165-9A4A-9C21-3E22DAA14C4F}" destId="{1A36237F-885D-9644-A72C-B998CE8310AC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{5D0F1608-9596-7E46-B754-9DF5C889827B}" srcId="{BC9A8D9F-2E5F-9544-A71D-01F622BE94A4}" destId="{57D0A3C5-E7A7-E34A-A30E-DAC6F4A62705}" srcOrd="0" destOrd="0" parTransId="{0E7C2159-C479-4D46-9AB0-347CF613D83A}" sibTransId="{8E9520EB-465D-1E42-B191-E0ABDC71324D}"/>
-    <dgm:cxn modelId="{5F4140C0-8146-954D-8936-77E17F75E98E}" type="presOf" srcId="{E6CCC3D2-7338-E04C-97E1-6E9C3C0D79BD}" destId="{BE0CC3ED-CD89-F245-B952-8DE6214A5D2A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9196B550-FAFA-E140-89C7-2EFE8A29CC4E}" type="presOf" srcId="{7741C7B6-9C30-6447-9EF1-9D27801205D9}" destId="{B618608D-7AD7-9C49-9EC4-26C7D3BD5726}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{97A9F0F4-3B68-254A-B37B-DBF37E4F433A}" srcId="{E4ED0CBB-7581-404A-A651-2615B3528EAE}" destId="{BC9A8D9F-2E5F-9544-A71D-01F622BE94A4}" srcOrd="1" destOrd="0" parTransId="{597276DE-7E85-1540-9DB2-6399332BBF1C}" sibTransId="{3D096F92-FB7D-5E43-9C43-3EB0433FF01F}"/>
-    <dgm:cxn modelId="{B70E0D71-3061-AD4B-950D-E60365230636}" type="presOf" srcId="{174CAB4C-6592-2943-9E81-D79ABCDDD5EB}" destId="{12F0335F-5A5E-6E4C-83D5-60FC67296852}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F15C6C70-50AB-7245-BA71-011633A41442}" type="presOf" srcId="{95B35F83-3A7E-3348-AFF7-7BB550F480A5}" destId="{0BDC511B-FEF6-A948-AFB5-B831E7D1CB20}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4E9E9B38-4770-BA4D-9921-26FA1927DCDF}" type="presOf" srcId="{8E1EE23A-AB5B-BD4B-8F2E-39BF6EE09BBD}" destId="{CD85A698-F878-2342-8000-E4F4285D7D37}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{161C03D4-A834-2A4E-A70C-5E2B72C67A3E}" srcId="{5F9F8C36-DC09-D148-A3A1-61A2A8EDE1A5}" destId="{E2EC8535-7D4E-A248-92A3-B5ACE610CB1A}" srcOrd="1" destOrd="0" parTransId="{C3388A01-6343-294F-8DAB-A14AC0879EA3}" sibTransId="{D873B9F9-B2F8-2B4C-ACFE-5B90F010A96C}"/>
-    <dgm:cxn modelId="{8A93343F-AA88-7745-B92F-618ACB5C59E7}" type="presOf" srcId="{9F9DBA58-9B9E-FD4E-89EC-F16E2FDF3BCF}" destId="{53B6567E-1D33-9642-84E8-E591AE7A1817}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4EE7826E-EB4F-0944-A590-DAEBEA8FFE15}" type="presOf" srcId="{D83F5DE6-4069-7E44-98EC-C3B3F02D9212}" destId="{79811B6C-2D41-7448-A502-5AC18F110A1E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0525C61B-5FB1-4749-8B81-C8F255BBA238}" type="presOf" srcId="{AEBF4446-075B-CB47-B91B-4EB37B32D182}" destId="{B59F6365-8BA9-E74A-B4E4-AA8955AA885F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6D6842CC-280D-1E4A-A8C2-86C3C5A18AD4}" type="presOf" srcId="{2AC7BF45-BB13-2B49-BE10-2D2ED2A770C5}" destId="{AEF8D581-119C-7943-B670-64BC19D4818A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6A09FD19-142E-744D-9CE1-97F3C6E4EB98}" type="presOf" srcId="{DD6D10BC-7B77-4D49-97E5-505855D44162}" destId="{EEF411AC-A44A-594E-AB90-6653FEC8E56B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{73BB86D6-4046-1345-88BF-CC7B79762621}" type="presOf" srcId="{217EBDD5-650F-5142-BB6D-001DAC4D85A1}" destId="{9F471135-2AFC-A343-8E42-B13726432695}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E214EF85-B7CE-BC4B-835E-DFECDF2C5B2F}" type="presOf" srcId="{908B7F93-D1F0-D246-89A8-AB3367602B53}" destId="{F4CF59C6-C368-4044-982E-36FC1A7EB303}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D27224EC-2B5A-A942-B053-541E373ED6C7}" type="presOf" srcId="{C497D304-C1A4-BD46-AA30-8FFF0A1F22B1}" destId="{1427119A-EE13-B348-BE89-EE531B981D84}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{689ABFDA-7CD3-3249-9805-7209248FCB47}" type="presOf" srcId="{62091817-2B10-904C-B454-A5759D4FBF38}" destId="{1B518194-07CA-B94D-A830-3006485E6D00}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E214EF85-B7CE-BC4B-835E-DFECDF2C5B2F}" type="presOf" srcId="{908B7F93-D1F0-D246-89A8-AB3367602B53}" destId="{F4CF59C6-C368-4044-982E-36FC1A7EB303}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{44E401E7-BC95-F642-A023-72561EB8F180}" type="presOf" srcId="{FCF6C2CD-760A-0347-811F-98C195F99225}" destId="{692B3688-E37C-FA41-BA5C-C964C14700F4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2A7A7AD5-C1AE-4344-A638-9BDE43DB81DF}" type="presOf" srcId="{28F6A739-59B7-4146-B35C-5CEF58D13C66}" destId="{A80246A2-98FE-7A44-885B-9E32CE0DCB3C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C72C0BDF-D080-824D-A0CB-5C73F8620D45}" type="presOf" srcId="{BE969C17-8DA4-4642-9089-C88EF86C2EC6}" destId="{B5101E0D-9443-A241-87A6-8AC4091D0D39}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E822EC2E-F41A-C345-857F-85B397368603}" type="presOf" srcId="{5F9F8C36-DC09-D148-A3A1-61A2A8EDE1A5}" destId="{90F32754-9278-B54E-965F-B1D3E23247DE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DA4F9D0C-52FF-8A4C-B793-C08AE166989A}" type="presOf" srcId="{93C6A22A-57F7-1C44-AF70-F0793EAEBA87}" destId="{F890C46F-A3AD-4F48-85C0-47078161FA34}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D6A80CA5-BA21-0C44-B0CB-ABA46D1E9F27}" srcId="{A59E496E-FE5F-6C4C-8B67-B72CF1CFCC53}" destId="{405E5291-1F79-384B-9830-46A7E4852F6A}" srcOrd="3" destOrd="0" parTransId="{28F6A739-59B7-4146-B35C-5CEF58D13C66}" sibTransId="{A194C75A-387D-B04D-8897-AE0FDAEF1A8E}"/>
-    <dgm:cxn modelId="{A37C8BAE-651A-F849-8393-3E0E01B3FF25}" type="presOf" srcId="{8836C959-3B1E-1348-B630-FD10BF3963F7}" destId="{3014E2D0-9C28-CF49-98F9-FA41CEE3FD3F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C2BF21C1-6B17-0149-84AF-6D631120A741}" srcId="{62091817-2B10-904C-B454-A5759D4FBF38}" destId="{7741C7B6-9C30-6447-9EF1-9D27801205D9}" srcOrd="0" destOrd="0" parTransId="{0B6ECEA1-2C2D-DA44-B59E-EB1F5265B034}" sibTransId="{CF072B1B-C79A-FC4F-891B-39DE68F15872}"/>
-    <dgm:cxn modelId="{3DB680F2-0A44-9244-9521-2D1B78455BDB}" srcId="{9EDE6D3D-30F0-7346-BFCE-0A5ED7ADA30F}" destId="{634D2915-1B87-6F41-8AA7-11AFA03AE320}" srcOrd="0" destOrd="0" parTransId="{174CAB4C-6592-2943-9E81-D79ABCDDD5EB}" sibTransId="{93B57424-260E-1641-8CE0-A268A9835011}"/>
-    <dgm:cxn modelId="{82710531-0DE1-6342-BF23-1C1F73B53A47}" type="presOf" srcId="{48643BAB-7807-3240-91F5-5DEF038BB486}" destId="{BE2AE1AF-EFB1-3C4D-B666-EBE1B65C89CC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{87BAF360-6266-1342-9440-84C2A02567A1}" type="presOf" srcId="{E3661A1C-BF02-1142-98D0-5B98E0B7FB9B}" destId="{632D5459-A7B3-F745-9650-4BD3309518D9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A2D23DA5-16BC-3842-862A-DC390F14360E}" type="presOf" srcId="{676BD3E5-73D9-F64B-92A8-E237AD94C1EE}" destId="{350630EE-58E5-F04C-AC1A-4C64196B938E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{00FF72F5-5D40-8545-BD53-46C7BEEA296A}" type="presOf" srcId="{A59E496E-FE5F-6C4C-8B67-B72CF1CFCC53}" destId="{EEA4DBD0-035B-3142-A832-8B404AAB909E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FF5CAA34-6E4C-A242-B07C-BCC0B214F2ED}" type="presOf" srcId="{217EBDD5-650F-5142-BB6D-001DAC4D85A1}" destId="{EC18C83C-EDFB-5544-ABA5-89DA490A17C1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7DCD4E8C-1DB0-C74C-9EE4-20C5BE964A98}" type="presOf" srcId="{A0A51A2A-71A2-984D-86FF-1A42A10D5AC3}" destId="{96039AA3-075B-EA40-9C29-3D06574FDD82}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{AE3AD53F-CC6B-E24D-8301-5A653A7550FF}" type="presOf" srcId="{03422D19-D5F2-4D4F-95FE-CE35FE6C2848}" destId="{4D062FB9-F612-8147-BF29-B905BDE67D11}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{38D0B31F-CAB9-F640-9149-C74216079BCA}" type="presOf" srcId="{81DB71E8-D10D-BB4E-88F9-6233C3F047CF}" destId="{060FB004-B11A-D240-B16E-7BB6C2FBCC4F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9525739F-C6CC-A147-AED6-4056DDED1BDE}" type="presOf" srcId="{9E94AF94-C4D4-9343-BE8D-A8A5054DDD6B}" destId="{90D2635A-EC85-B741-85BA-B45A43A173CC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{82E92DED-2944-B349-8F47-98DF7B12F0ED}" type="presOf" srcId="{57D0A3C5-E7A7-E34A-A30E-DAC6F4A62705}" destId="{6D8C07F4-14C6-354B-B2FE-F6B259948E7B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EA44CBC8-AE52-1B49-B74E-6AB5A4EA3804}" type="presOf" srcId="{4C5E212B-B6E9-4748-9610-D02A0C6D740F}" destId="{C05EE72C-5B3E-5743-A06E-F471E7FD622E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9EB7F65C-1A4B-534C-AC6B-A2C2C5F19F2C}" type="presOf" srcId="{E4ED0CBB-7581-404A-A651-2615B3528EAE}" destId="{509DDD19-A10B-894E-A6CE-2CD42D5266FA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A002A8D6-64F3-E042-9AE3-820BDFCECAE2}" type="presOf" srcId="{03422D19-D5F2-4D4F-95FE-CE35FE6C2848}" destId="{0813E996-DE7E-CC4C-88B1-1605FACED624}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E5A8606D-8975-E147-8723-1F8C74BE6867}" type="presOf" srcId="{63899E79-05AA-4042-9838-C582A11E7D99}" destId="{3580C7A2-7354-4746-A370-18ED38E46B1C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A02F12AB-66CF-ED4A-B1B4-C1E23E07C475}" type="presOf" srcId="{AE41CA35-4F4F-3348-A401-EAA6E49A75FC}" destId="{48A25236-973E-BC4F-BDF9-5F0D8C3266FC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{14547A53-FA28-1740-8BB1-BDC5C93FD523}" type="presOf" srcId="{634D2915-1B87-6F41-8AA7-11AFA03AE320}" destId="{1C92223F-A6F5-A34A-96DC-0C5933ACDF11}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{74AF02DF-3AB5-D741-A1E1-49D45AAFD3DA}" type="presOf" srcId="{FB8F5E77-770B-5045-AC10-C69DC143C0E4}" destId="{D3B2EA26-D167-074D-A54D-725D67244D42}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{669F0667-24B0-3A47-83A9-2675087EBD1F}" type="presOf" srcId="{F95DACCC-E18F-5E48-938E-7D49A4B1C4C7}" destId="{DF6E5DB8-D0AD-FE4E-92E1-D8F078226093}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7A944715-D57C-B243-8A65-5A11D2D9B495}" type="presOf" srcId="{4C5E212B-B6E9-4748-9610-D02A0C6D740F}" destId="{7FAD7C1A-CEF0-264A-86CC-E95C36EE828E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0525C61B-5FB1-4749-8B81-C8F255BBA238}" type="presOf" srcId="{AEBF4446-075B-CB47-B91B-4EB37B32D182}" destId="{B59F6365-8BA9-E74A-B4E4-AA8955AA885F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{570ECE87-12CE-4246-B331-6D26E5A04ED1}" type="presOf" srcId="{CAC9110F-3BE7-064E-A818-0BDEFD48FD99}" destId="{82BAD0FA-8A9A-BE42-B014-59939AE60B13}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{60CCFC09-4636-B84A-9131-B2786420EF0A}" type="presOf" srcId="{DE9327E2-91CD-3F46-9A7E-D13B9E0E9656}" destId="{B2ADE3B0-CBED-3A44-A0D2-E859C476FD2F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7E8CD751-74FC-784D-85AB-5463B3D2AD9C}" type="presOf" srcId="{8CE5F06C-4123-744C-AE0F-B8C8DEEC9D82}" destId="{702EE945-9512-9C40-925B-2DFFD9CBC819}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D5348E9C-2186-EA44-A598-6C085E33E0F0}" type="presOf" srcId="{00B34B9A-7857-BB49-97ED-26F372B163A5}" destId="{0781DECD-6C6E-C345-807E-C46093D21C62}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E260D5C0-F82C-A442-B68F-9F54D4586FCB}" type="presOf" srcId="{95654230-9F36-0740-BBEC-483F0D21D59B}" destId="{A32C358C-6D14-0649-84AB-0052A00E0CD9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{73BB86D6-4046-1345-88BF-CC7B79762621}" type="presOf" srcId="{217EBDD5-650F-5142-BB6D-001DAC4D85A1}" destId="{9F471135-2AFC-A343-8E42-B13726432695}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5ECA6411-5F5A-5E48-AF9B-16FD010C7CB2}" type="presOf" srcId="{80D3D1E2-9073-C048-AAF2-51303E2E4ECF}" destId="{128F6B90-A50A-1C44-A410-1CC988237174}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DF6D46D9-F795-AC43-A169-C1847EAD6888}" type="presOf" srcId="{C5F3E9EA-0100-B74D-A3EF-E640CEBD72F2}" destId="{C9451A94-8933-6A4A-9586-08C35ADA9D83}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B15CE637-E2DC-6E41-9F6C-630589E24521}" type="presOf" srcId="{B6ABE769-E14B-BC4E-91CF-3F88BEE965D5}" destId="{B8A23D85-76FD-214A-94B7-B85CBC35CC76}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6BBDCC87-C556-AB4C-BCDB-DBE2FEF7AFD0}" srcId="{AEBF4446-075B-CB47-B91B-4EB37B32D182}" destId="{03422D19-D5F2-4D4F-95FE-CE35FE6C2848}" srcOrd="1" destOrd="0" parTransId="{727C5450-4BD0-AF4B-B826-2D2D8FC22A11}" sibTransId="{8E872ACB-3A8B-4C4E-AB63-17BAA4F28188}"/>
-    <dgm:cxn modelId="{E11B4328-675D-4E4C-BDBA-14CA2304C87D}" srcId="{405E5291-1F79-384B-9830-46A7E4852F6A}" destId="{D83F5DE6-4069-7E44-98EC-C3B3F02D9212}" srcOrd="1" destOrd="0" parTransId="{401CF23E-8ECD-EB4D-8A80-4664CAF1D461}" sibTransId="{9CABD585-24FB-394D-8B83-3F15AB6A4C0D}"/>
-    <dgm:cxn modelId="{6A09FD19-142E-744D-9CE1-97F3C6E4EB98}" type="presOf" srcId="{DD6D10BC-7B77-4D49-97E5-505855D44162}" destId="{EEF411AC-A44A-594E-AB90-6653FEC8E56B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{995B83EB-D445-4440-A81C-831350CD8C49}" srcId="{48643BAB-7807-3240-91F5-5DEF038BB486}" destId="{79602D73-11B2-B448-A2F7-701D5264B757}" srcOrd="0" destOrd="0" parTransId="{00B34B9A-7857-BB49-97ED-26F372B163A5}" sibTransId="{D2F99C4D-0F77-314C-B426-5E987453C7B9}"/>
     <dgm:cxn modelId="{D9C033F6-EA81-EA4B-BDCD-DBF3793F4B72}" type="presOf" srcId="{79602D73-11B2-B448-A2F7-701D5264B757}" destId="{6570005E-6DBA-7D49-929B-7C0CB6C22ABE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{570ECE87-12CE-4246-B331-6D26E5A04ED1}" type="presOf" srcId="{CAC9110F-3BE7-064E-A818-0BDEFD48FD99}" destId="{82BAD0FA-8A9A-BE42-B014-59939AE60B13}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8709F35A-9D43-994B-8C29-BFE91AF8CC27}" type="presOf" srcId="{9EDE6D3D-30F0-7346-BFCE-0A5ED7ADA30F}" destId="{B9C71E19-1844-B240-B9B8-3E953B6E57EC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B15CE637-E2DC-6E41-9F6C-630589E24521}" type="presOf" srcId="{B6ABE769-E14B-BC4E-91CF-3F88BEE965D5}" destId="{B8A23D85-76FD-214A-94B7-B85CBC35CC76}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{679BB751-E95F-F642-AA5D-ED36868F51E5}" type="presOf" srcId="{7741C7B6-9C30-6447-9EF1-9D27801205D9}" destId="{179BC8B6-FF22-CA40-A588-84AEE9F34BCD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1E3CAFB5-BD18-434E-9A33-5143F5BF7CBF}" type="presOf" srcId="{89BA06B7-2AE4-2E4B-AFC6-53C5D9CCDD95}" destId="{85670DC3-0D30-5D4D-AB9D-D540F432760E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1A8AF138-AB6C-AC47-AA13-E4DFD24FFDF1}" type="presOf" srcId="{C3388A01-6343-294F-8DAB-A14AC0879EA3}" destId="{D386645B-FD3D-414D-A763-C0EF96BF3394}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F2B7D04A-23DC-2C4D-9B41-3B333112A5DF}" type="presOf" srcId="{A89FCE89-CBD4-AE42-A5AC-E592E49B9964}" destId="{FFB33A9B-A9B5-E140-AC94-4845AABB6048}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{14B15751-7FA1-4C4F-ACE6-C3FB7094B5FC}" srcId="{E2EC8535-7D4E-A248-92A3-B5ACE610CB1A}" destId="{A0A51A2A-71A2-984D-86FF-1A42A10D5AC3}" srcOrd="0" destOrd="0" parTransId="{8E1EE23A-AB5B-BD4B-8F2E-39BF6EE09BBD}" sibTransId="{61BD65B2-9718-9047-BE66-747D9A5CD5D8}"/>
-    <dgm:cxn modelId="{51C32C02-019A-0B42-9D77-7E8845A92DDB}" srcId="{9E94AF94-C4D4-9343-BE8D-A8A5054DDD6B}" destId="{DD6D10BC-7B77-4D49-97E5-505855D44162}" srcOrd="1" destOrd="0" parTransId="{BDBBE029-A3D3-3C48-A442-E2E47A5F58A8}" sibTransId="{B39374EA-6144-7C4F-A23D-1A50EC1F252F}"/>
-    <dgm:cxn modelId="{FFE36DDC-2C42-D943-A07B-5CF7A8E7AD78}" type="presOf" srcId="{32C90123-344E-804D-A91E-21C1EF501366}" destId="{49BD1A1A-8856-C746-800F-91CEE89B352A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DF6D46D9-F795-AC43-A169-C1847EAD6888}" type="presOf" srcId="{C5F3E9EA-0100-B74D-A3EF-E640CEBD72F2}" destId="{C9451A94-8933-6A4A-9586-08C35ADA9D83}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{B8DBB34F-ED32-674A-99B9-D4F9A18A2AA6}" type="presOf" srcId="{C5F3E9EA-0100-B74D-A3EF-E640CEBD72F2}" destId="{5392253B-3470-CF41-A9EC-8DDBCF8D8C5C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5CC441F5-0E4F-2C48-AEED-0A2B5FD35460}" type="presOf" srcId="{63899E79-05AA-4042-9838-C582A11E7D99}" destId="{CA691CA7-3B38-654F-BA91-8B2DA32F04C2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{12F40942-0746-1B40-BDDE-A96AD4BF0D56}" type="presOf" srcId="{BC9A8D9F-2E5F-9544-A71D-01F622BE94A4}" destId="{5C0963F4-07E1-734F-AD64-E38BF62A5B25}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{00A42C37-EBC3-1249-B75D-649786D48EA3}" type="presOf" srcId="{9BAB2237-F165-9A4A-9C21-3E22DAA14C4F}" destId="{A33E0EF3-98D8-B843-90D5-91EA62DB027B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B1381DD0-08BF-2E4C-B163-B344ED56D27A}" srcId="{79602D73-11B2-B448-A2F7-701D5264B757}" destId="{5F9F8C36-DC09-D148-A3A1-61A2A8EDE1A5}" srcOrd="0" destOrd="0" parTransId="{D68CB686-78F0-B045-B573-D87C3BBB65CF}" sibTransId="{9CB57560-DE99-544E-8853-B612C206D7D6}"/>
-    <dgm:cxn modelId="{4FA31E93-192F-DC46-8B93-DE36937C0CBA}" type="presOf" srcId="{5F9F8C36-DC09-D148-A3A1-61A2A8EDE1A5}" destId="{36F9256E-EF1E-1649-95C3-EC3394BE632E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6DAD5206-3EA2-2140-84CE-D52EA7FBD1EC}" type="presOf" srcId="{E2EC8535-7D4E-A248-92A3-B5ACE610CB1A}" destId="{10F3BD33-9FA5-4B44-8E3A-D6D6C8DD7D35}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{493E56D2-CDDF-A040-A016-131A22F01FF2}" type="presOf" srcId="{93C6A22A-57F7-1C44-AF70-F0793EAEBA87}" destId="{E117CFCE-0121-F94D-B2A6-669AD8567EDC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{932C06FF-5E8E-B04E-985E-4876CAFDBEB2}" srcId="{5F9F8C36-DC09-D148-A3A1-61A2A8EDE1A5}" destId="{AEBF4446-075B-CB47-B91B-4EB37B32D182}" srcOrd="0" destOrd="0" parTransId="{CAC9110F-3BE7-064E-A818-0BDEFD48FD99}" sibTransId="{C07E4112-6415-E140-9E8F-128BC4E59222}"/>
-    <dgm:cxn modelId="{158872CD-2A75-FC49-9D73-A7EA2D3E070D}" srcId="{D83F5DE6-4069-7E44-98EC-C3B3F02D9212}" destId="{BE1943A9-B9FA-5443-9147-7618EFDF0887}" srcOrd="0" destOrd="0" parTransId="{6B5988D4-FE7B-3C44-8688-B0AE9F152914}" sibTransId="{063F13E6-2567-DC4D-93B7-89C34DCEFB3C}"/>
-    <dgm:cxn modelId="{89ABDDEA-A1C5-2146-9B7C-E32E2CD4FAB0}" type="presOf" srcId="{3BE4010D-7CBC-4143-A1D8-C656F9F8AFAD}" destId="{9EA54BBB-0273-1747-A1C3-0BFD41C2B9AC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{AE9FDFEF-5ECA-2A4F-A7C2-B0A362462876}" type="presOf" srcId="{79602D73-11B2-B448-A2F7-701D5264B757}" destId="{567F9A90-E6CE-2A4E-8E0C-F280195E5CED}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{27879839-3EAE-E145-8021-F437BC4E4E6C}" type="presOf" srcId="{26BE77B1-2BCC-9F4E-AA76-EBB4A4C0E317}" destId="{8C8238B2-BA6B-C545-848F-C48E08EE9F63}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{05A5694B-E8C4-2F4B-82C0-8C0C8333E660}" type="presOf" srcId="{FB8F5E77-770B-5045-AC10-C69DC143C0E4}" destId="{1A094F09-21A9-2446-9C87-D6568214B312}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3254A146-D3DC-E846-A0A6-95AC7B2359B7}" srcId="{FDCC0C92-E67C-5A4C-B26F-12579B562C91}" destId="{7D9C99EE-CFF5-C24D-B52D-296E74E796AE}" srcOrd="0" destOrd="0" parTransId="{01E52349-E7DA-E04C-B99A-896E430E6F63}" sibTransId="{8FDB6B3A-8B37-0B42-A6A4-EDE2722AE096}"/>
-    <dgm:cxn modelId="{58B1FF45-102B-954F-878B-3A71B38AA25F}" type="presOf" srcId="{BE1943A9-B9FA-5443-9147-7618EFDF0887}" destId="{CDCFE67A-6E10-714C-8B91-25AE9315E32B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A7C67235-03D7-0841-9486-F5DC58EB2182}" type="presOf" srcId="{676BD3E5-73D9-F64B-92A8-E237AD94C1EE}" destId="{6FD374EA-C12D-D14F-A6A9-D3907D7ECB87}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1EF67703-105B-5D46-B068-6147035F454D}" type="presOf" srcId="{E2EC8535-7D4E-A248-92A3-B5ACE610CB1A}" destId="{5CA0A923-914E-8F46-B030-85660BD37343}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{AC3E1EAC-225F-2247-9F12-BA9CAC4BA959}" type="presOf" srcId="{634D2915-1B87-6F41-8AA7-11AFA03AE320}" destId="{7CCB52B1-4542-4B4C-AF2F-E93021CD7FE2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{148BE738-D5DA-CF42-A69C-35B818B40B2A}" type="presOf" srcId="{62091817-2B10-904C-B454-A5759D4FBF38}" destId="{46C7554D-3218-8B48-88A9-8D34C5F1E971}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A002A8D6-64F3-E042-9AE3-820BDFCECAE2}" type="presOf" srcId="{03422D19-D5F2-4D4F-95FE-CE35FE6C2848}" destId="{0813E996-DE7E-CC4C-88B1-1605FACED624}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{05575E0C-774D-DF46-BB33-4030588BB435}" srcId="{DD6D10BC-7B77-4D49-97E5-505855D44162}" destId="{C497D304-C1A4-BD46-AA30-8FFF0A1F22B1}" srcOrd="1" destOrd="0" parTransId="{BE969C17-8DA4-4642-9089-C88EF86C2EC6}" sibTransId="{B787E2A2-50D1-B849-BF33-9562DC3A083B}"/>
+    <dgm:cxn modelId="{74AF02DF-3AB5-D741-A1E1-49D45AAFD3DA}" type="presOf" srcId="{FB8F5E77-770B-5045-AC10-C69DC143C0E4}" destId="{D3B2EA26-D167-074D-A54D-725D67244D42}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A37C8BAE-651A-F849-8393-3E0E01B3FF25}" type="presOf" srcId="{8836C959-3B1E-1348-B630-FD10BF3963F7}" destId="{3014E2D0-9C28-CF49-98F9-FA41CEE3FD3F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B70E0D71-3061-AD4B-950D-E60365230636}" type="presOf" srcId="{174CAB4C-6592-2943-9E81-D79ABCDDD5EB}" destId="{12F0335F-5A5E-6E4C-83D5-60FC67296852}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FD67C023-4E42-E94D-8D39-43F55CFBEB90}" type="presOf" srcId="{FDCC0C92-E67C-5A4C-B26F-12579B562C91}" destId="{E3C3CA58-A08C-2245-A904-FD0C195AAD1A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{25CFD22C-EC72-C94A-AC95-2B5EA6682B41}" type="presOf" srcId="{405E5291-1F79-384B-9830-46A7E4852F6A}" destId="{101CD3BE-1B17-3D43-8489-E997777BB35E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D6A80CA5-BA21-0C44-B0CB-ABA46D1E9F27}" srcId="{A59E496E-FE5F-6C4C-8B67-B72CF1CFCC53}" destId="{405E5291-1F79-384B-9830-46A7E4852F6A}" srcOrd="3" destOrd="0" parTransId="{28F6A739-59B7-4146-B35C-5CEF58D13C66}" sibTransId="{A194C75A-387D-B04D-8897-AE0FDAEF1A8E}"/>
+    <dgm:cxn modelId="{06C7D2A2-CAE4-B94F-BD1B-BA1C824759B3}" srcId="{FCF6C2CD-760A-0347-811F-98C195F99225}" destId="{80D3D1E2-9073-C048-AAF2-51303E2E4ECF}" srcOrd="0" destOrd="0" parTransId="{26BE77B1-2BCC-9F4E-AA76-EBB4A4C0E317}" sibTransId="{8B23C30E-7E5C-EF4F-BED8-FFC72C637E98}"/>
+    <dgm:cxn modelId="{FF5CAA34-6E4C-A242-B07C-BCC0B214F2ED}" type="presOf" srcId="{217EBDD5-650F-5142-BB6D-001DAC4D85A1}" destId="{EC18C83C-EDFB-5544-ABA5-89DA490A17C1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C32A173D-F7B8-E445-8A4E-B970B73F9B93}" srcId="{79602D73-11B2-B448-A2F7-701D5264B757}" destId="{A59E496E-FE5F-6C4C-8B67-B72CF1CFCC53}" srcOrd="1" destOrd="0" parTransId="{E6CCC3D2-7338-E04C-97E1-6E9C3C0D79BD}" sibTransId="{891F31BB-F029-E542-8508-A05CBD944B50}"/>
     <dgm:cxn modelId="{6D340908-7D15-5140-9438-294CCFF8437F}" type="presOf" srcId="{AE41CA35-4F4F-3348-A401-EAA6E49A75FC}" destId="{78E94E3B-D045-6C4B-AC79-537C4DE11A8B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1851D906-521C-7746-8366-D43E43EC01D1}" type="presOf" srcId="{FDCC0C92-E67C-5A4C-B26F-12579B562C91}" destId="{B9570CEA-47F9-3043-9F24-93F6311B0817}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{61262FA1-3D2C-C34B-8D7E-8F796087A668}" type="presOf" srcId="{401CF23E-8ECD-EB4D-8A80-4664CAF1D461}" destId="{0DD3C668-0536-E445-B471-1B0916B8DC77}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{68A2B1CD-836B-C747-993D-99339E2BD6D1}" type="presOf" srcId="{44440206-9580-7942-A70C-A8DCFE62030E}" destId="{B2DE3E60-6010-7F49-8558-28F52876D1AF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3F17C999-3823-8247-B127-B9AB4324AE20}" srcId="{405E5291-1F79-384B-9830-46A7E4852F6A}" destId="{9EDE6D3D-30F0-7346-BFCE-0A5ED7ADA30F}" srcOrd="0" destOrd="0" parTransId="{95B35F83-3A7E-3348-AFF7-7BB550F480A5}" sibTransId="{7E599CD5-8E38-0E43-992F-780F6EEB8651}"/>
-    <dgm:cxn modelId="{8281478A-4C4E-2C4C-B821-E6C367D40906}" type="presOf" srcId="{AEBF4446-075B-CB47-B91B-4EB37B32D182}" destId="{E2C3C3F1-76BA-C24D-9356-572D6C751403}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C32A173D-F7B8-E445-8A4E-B970B73F9B93}" srcId="{79602D73-11B2-B448-A2F7-701D5264B757}" destId="{A59E496E-FE5F-6C4C-8B67-B72CF1CFCC53}" srcOrd="1" destOrd="0" parTransId="{E6CCC3D2-7338-E04C-97E1-6E9C3C0D79BD}" sibTransId="{891F31BB-F029-E542-8508-A05CBD944B50}"/>
-    <dgm:cxn modelId="{32BB3350-B3BC-8642-84A5-28BAFB8A9EDA}" type="presOf" srcId="{56720AC2-33F2-8A4C-8606-320F8E221A1C}" destId="{EEC08E85-6095-9E41-9116-251A41925C89}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9A413C49-F184-D04A-A23C-84A22211B126}" srcId="{E2EC8535-7D4E-A248-92A3-B5ACE610CB1A}" destId="{676BD3E5-73D9-F64B-92A8-E237AD94C1EE}" srcOrd="1" destOrd="0" parTransId="{DE9327E2-91CD-3F46-9A7E-D13B9E0E9656}" sibTransId="{388C85B6-F431-7D47-84E3-63D5245B92FA}"/>
-    <dgm:cxn modelId="{3740C138-E464-8948-BCE3-194C766A7728}" type="presOf" srcId="{01E52349-E7DA-E04C-B99A-896E430E6F63}" destId="{51F1448E-6B7F-3D4F-BF0E-DB07B8FD268F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D3FB9A5D-1FD3-3B45-A758-363DC11241CD}" type="presOf" srcId="{D68CB686-78F0-B045-B573-D87C3BBB65CF}" destId="{702F561C-3B1D-3F43-AF23-D48DA05FF27B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{979F4D00-70FB-1B45-A46A-40488DB9C7B2}" type="presOf" srcId="{A89FCE89-CBD4-AE42-A5AC-E592E49B9964}" destId="{AC9633E0-1129-CF4A-975D-070874289BB3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{100E11F5-553A-E140-9642-4CB1B64BB646}" srcId="{AEBF4446-075B-CB47-B91B-4EB37B32D182}" destId="{FB8F5E77-770B-5045-AC10-C69DC143C0E4}" srcOrd="0" destOrd="0" parTransId="{C695C4C4-6F92-4B45-8C0A-06386EB397A0}" sibTransId="{42613154-E21F-AE42-BF4F-99AA234F096D}"/>
-    <dgm:cxn modelId="{665BE8AB-60F7-B44D-89EE-978497D9BCC2}" srcId="{FCF6C2CD-760A-0347-811F-98C195F99225}" destId="{C5F3E9EA-0100-B74D-A3EF-E640CEBD72F2}" srcOrd="1" destOrd="0" parTransId="{01626F2D-C116-6246-A345-5D5F3EBF6616}" sibTransId="{C0D59139-010C-374A-9859-C228419F6C15}"/>
-    <dgm:cxn modelId="{06C7D2A2-CAE4-B94F-BD1B-BA1C824759B3}" srcId="{FCF6C2CD-760A-0347-811F-98C195F99225}" destId="{80D3D1E2-9073-C048-AAF2-51303E2E4ECF}" srcOrd="0" destOrd="0" parTransId="{26BE77B1-2BCC-9F4E-AA76-EBB4A4C0E317}" sibTransId="{8B23C30E-7E5C-EF4F-BED8-FFC72C637E98}"/>
-    <dgm:cxn modelId="{33552898-7BA9-6248-8AD6-F998784115B6}" type="presOf" srcId="{01626F2D-C116-6246-A345-5D5F3EBF6616}" destId="{BD469DE3-7F03-3F40-8853-DA9F29C28469}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2AC9ABB4-B5B2-7941-912D-37BF7093E769}" type="presOf" srcId="{DBC5D1EE-B611-9441-B42E-EF3891670ECB}" destId="{34C9115F-49E5-654E-BFD2-803C9A38F6C8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4F87082C-533A-7943-B43B-3C9645061374}" srcId="{A59E496E-FE5F-6C4C-8B67-B72CF1CFCC53}" destId="{9BAB2237-F165-9A4A-9C21-3E22DAA14C4F}" srcOrd="0" destOrd="0" parTransId="{3BE4010D-7CBC-4143-A1D8-C656F9F8AFAD}" sibTransId="{C44E29B6-11D7-EC42-A53E-CA676D642833}"/>
-    <dgm:cxn modelId="{6BA69DB9-47B6-1443-81DB-CD4C5AE7BD55}" type="presOf" srcId="{727C5450-4BD0-AF4B-B826-2D2D8FC22A11}" destId="{B75A8D49-AE71-874F-99F2-A59C6C4D7F9E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{941F4EC7-275D-CB4E-BA71-E8EB3587C363}" srcId="{A0A51A2A-71A2-984D-86FF-1A42A10D5AC3}" destId="{8CE5F06C-4123-744C-AE0F-B8C8DEEC9D82}" srcOrd="1" destOrd="0" parTransId="{6CCF7D33-F5D5-904E-8894-C59F7FC36E5C}" sibTransId="{B82CA4A0-ED80-FC4B-856D-459AA485FA3C}"/>
-    <dgm:cxn modelId="{05575E0C-774D-DF46-BB33-4030588BB435}" srcId="{DD6D10BC-7B77-4D49-97E5-505855D44162}" destId="{C497D304-C1A4-BD46-AA30-8FFF0A1F22B1}" srcOrd="1" destOrd="0" parTransId="{BE969C17-8DA4-4642-9089-C88EF86C2EC6}" sibTransId="{B787E2A2-50D1-B849-BF33-9562DC3A083B}"/>
-    <dgm:cxn modelId="{DFB6045A-B2C2-8042-A386-48CD2848CF78}" type="presOf" srcId="{405E5291-1F79-384B-9830-46A7E4852F6A}" destId="{0C1D8114-733B-0F4A-BCF6-7F61188E5CB7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{363BFE73-83FF-504D-998D-58B37FC8FB1A}" srcId="{D83F5DE6-4069-7E44-98EC-C3B3F02D9212}" destId="{62091817-2B10-904C-B454-A5759D4FBF38}" srcOrd="1" destOrd="0" parTransId="{5115512A-392E-4C44-B49D-001CE908866F}" sibTransId="{3C05D037-B276-E144-AABD-0F8147B35D30}"/>
-    <dgm:cxn modelId="{13A92F88-D168-A047-8A06-4305B2381080}" type="presOf" srcId="{E7203974-4117-4148-89BB-CD0D6B6D83C5}" destId="{F3F4CB4C-59A8-DC40-BA6F-A7461BF1C5F3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{24C8F0CA-048F-8C49-B67A-E2D20412F3C3}" type="presOf" srcId="{6B5988D4-FE7B-3C44-8688-B0AE9F152914}" destId="{0E313494-3667-214E-B174-4A794C37D505}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B48E2856-3EF5-B54B-B10A-013F9FD467DF}" type="presOf" srcId="{7D582346-277F-874D-B797-796D26052034}" destId="{1EBCFEFC-05FB-C944-9159-90AB8B642FE9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{70FE7153-E068-184F-B98E-721DFB18EBC6}" srcId="{9BAB2237-F165-9A4A-9C21-3E22DAA14C4F}" destId="{FCF6C2CD-760A-0347-811F-98C195F99225}" srcOrd="0" destOrd="0" parTransId="{908B7F93-D1F0-D246-89A8-AB3367602B53}" sibTransId="{3205DA75-F9ED-474D-991E-00BAC0FF8B1E}"/>
-    <dgm:cxn modelId="{9232D172-67E3-E44C-AE68-0E5DE50CCE4E}" type="presOf" srcId="{56720AC2-33F2-8A4C-8606-320F8E221A1C}" destId="{1F69B79B-8384-D441-BE9A-D8187C401D00}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{34DA514E-0194-FB45-90FA-9B8771F2F466}" srcId="{9BAB2237-F165-9A4A-9C21-3E22DAA14C4F}" destId="{E4ED0CBB-7581-404A-A651-2615B3528EAE}" srcOrd="1" destOrd="0" parTransId="{C3ABC4FD-5269-1741-A3D4-F7AF84C9A8B9}" sibTransId="{E94FF274-97C0-8942-8897-ED830CCEE0BB}"/>
-    <dgm:cxn modelId="{2980D8E3-BDFF-7747-B535-6106C7C2A63C}" srcId="{DD6D10BC-7B77-4D49-97E5-505855D44162}" destId="{217EBDD5-650F-5142-BB6D-001DAC4D85A1}" srcOrd="0" destOrd="0" parTransId="{8836C959-3B1E-1348-B630-FD10BF3963F7}" sibTransId="{D96BB800-EB93-2D48-A2F2-33D4C207776D}"/>
-    <dgm:cxn modelId="{28705467-323D-CF4B-A35C-FDD3D7FB7124}" type="presOf" srcId="{BDBBE029-A3D3-3C48-A442-E2E47A5F58A8}" destId="{5FC19D7B-7E0E-584D-ADAB-5B248D17BBED}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{AE36D8C8-B93E-0747-B984-92F335E3A4EB}" type="presOf" srcId="{E4ED0CBB-7581-404A-A651-2615B3528EAE}" destId="{3EC6198D-D583-D549-9926-68B16C1BD20F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B4F9C895-75B1-7841-84E4-7F7EBF0378F2}" type="presOf" srcId="{95654230-9F36-0740-BBEC-483F0D21D59B}" destId="{4E1F02F2-F22C-E040-B694-36AF6746ADA9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E25A178C-F7F4-A649-A540-D44D8B1804E6}" srcId="{676BD3E5-73D9-F64B-92A8-E237AD94C1EE}" destId="{95654230-9F36-0740-BBEC-483F0D21D59B}" srcOrd="1" destOrd="0" parTransId="{7D582346-277F-874D-B797-796D26052034}" sibTransId="{9D8224AB-55B1-D948-BFD6-A56867E88703}"/>
-    <dgm:cxn modelId="{4A456102-02F2-024F-BFF5-3E5E5E65B84E}" type="presOf" srcId="{48643BAB-7807-3240-91F5-5DEF038BB486}" destId="{33D6B3FA-2E13-EB4E-BCAF-1568A14B6534}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C8CB3E13-5894-0A47-84E1-659C55B35295}" srcId="{A59E496E-FE5F-6C4C-8B67-B72CF1CFCC53}" destId="{B6ABE769-E14B-BC4E-91CF-3F88BEE965D5}" srcOrd="2" destOrd="0" parTransId="{89BA06B7-2AE4-2E4B-AFC6-53C5D9CCDD95}" sibTransId="{D0F5F489-764E-494F-842B-E9D29F2B85CF}"/>
-    <dgm:cxn modelId="{CA9BDD5C-1B80-2545-88B9-1A23676EB9F6}" srcId="{A0A51A2A-71A2-984D-86FF-1A42A10D5AC3}" destId="{AE41CA35-4F4F-3348-A401-EAA6E49A75FC}" srcOrd="0" destOrd="0" parTransId="{2E67D634-786B-9B45-BC6A-FBD11AA5F16B}" sibTransId="{E8BE9584-BB4C-2B4A-8184-9D59ECEB5F81}"/>
-    <dgm:cxn modelId="{2E738CF6-7AF3-9946-A2A1-718366509043}" srcId="{BC9A8D9F-2E5F-9544-A71D-01F622BE94A4}" destId="{93C6A22A-57F7-1C44-AF70-F0793EAEBA87}" srcOrd="1" destOrd="0" parTransId="{E3661A1C-BF02-1142-98D0-5B98E0B7FB9B}" sibTransId="{71FFD8C6-4262-D849-AD74-FC8BEB2FC417}"/>
-    <dgm:cxn modelId="{71BEBEF9-80AD-754B-BAC5-92A17C918F46}" type="presOf" srcId="{C3ABC4FD-5269-1741-A3D4-F7AF84C9A8B9}" destId="{889F7B09-1BD9-414A-AFE8-D9525D75014F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FBAAB824-890D-3944-A152-D512F0BE3B6D}" type="presOf" srcId="{BE1943A9-B9FA-5443-9147-7618EFDF0887}" destId="{38CE67DA-8AC8-0D4A-A0AE-9E4AD0FEB3D0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D2CF0766-6CE9-044B-81F6-E7BCD2F88BF5}" type="presOf" srcId="{597276DE-7E85-1540-9DB2-6399332BBF1C}" destId="{6CD42C34-578B-EA46-A2B5-0CE4AE533100}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7CC6DC0C-27D8-B844-8846-ED5DC7ABFDC0}" type="presOf" srcId="{7D9C99EE-CFF5-C24D-B52D-296E74E796AE}" destId="{5BA63115-F5E5-D54E-B9E1-642C23FE3734}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4EE7826E-EB4F-0944-A590-DAEBEA8FFE15}" type="presOf" srcId="{D83F5DE6-4069-7E44-98EC-C3B3F02D9212}" destId="{79811B6C-2D41-7448-A502-5AC18F110A1E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FD67C023-4E42-E94D-8D39-43F55CFBEB90}" type="presOf" srcId="{FDCC0C92-E67C-5A4C-B26F-12579B562C91}" destId="{E3C3CA58-A08C-2245-A904-FD0C195AAD1A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5BB03B8C-77A9-C64C-83CC-2031FB4978B7}" type="presOf" srcId="{5115512A-392E-4C44-B49D-001CE908866F}" destId="{24BF484B-6AF0-7D40-AA74-3B005B5818AF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EBF7A0E3-CA10-C643-8748-1D028E959221}" srcId="{FDCC0C92-E67C-5A4C-B26F-12579B562C91}" destId="{4C5E212B-B6E9-4748-9610-D02A0C6D740F}" srcOrd="1" destOrd="0" parTransId="{44440206-9580-7942-A70C-A8DCFE62030E}" sibTransId="{90BC3258-06EA-174D-81DB-4F08DE63F599}"/>
-    <dgm:cxn modelId="{9E7991A3-201E-8948-8DA5-FB4573ABD5D4}" srcId="{A59E496E-FE5F-6C4C-8B67-B72CF1CFCC53}" destId="{A89FCE89-CBD4-AE42-A5AC-E592E49B9964}" srcOrd="1" destOrd="0" parTransId="{F95DACCC-E18F-5E48-938E-7D49A4B1C4C7}" sibTransId="{C90E9E1D-0580-D24B-B5E7-36DD1B097A73}"/>
-    <dgm:cxn modelId="{D27224EC-2B5A-A942-B053-541E373ED6C7}" type="presOf" srcId="{C497D304-C1A4-BD46-AA30-8FFF0A1F22B1}" destId="{1427119A-EE13-B348-BE89-EE531B981D84}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7F1702D6-CAF3-6440-825B-56BE656D2885}" type="presOf" srcId="{BC9A8D9F-2E5F-9544-A71D-01F622BE94A4}" destId="{82A4DAF8-2CEC-E347-971B-933AFEB4849E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FB1116D9-DFB5-3744-8592-52465D028348}" type="presOf" srcId="{C695C4C4-6F92-4B45-8C0A-06386EB397A0}" destId="{80661D37-0894-F04B-9C9E-0700B8CF2364}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B61FC046-C2BA-D344-9239-A9E77703D896}" type="presOf" srcId="{DD6D10BC-7B77-4D49-97E5-505855D44162}" destId="{02493BAD-639A-8B41-8013-F46C0758C6FA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A8FDE793-E3BC-5B4B-A5FB-B05A10EB7708}" type="presOf" srcId="{DBE5256E-F3FA-1447-891C-07CE2E104D57}" destId="{CF4CC3CF-EF1C-A647-94A9-53BB31527141}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{74D567E9-52EC-244B-AC68-BFDA16E59673}" type="presOf" srcId="{8CE5F06C-4123-744C-AE0F-B8C8DEEC9D82}" destId="{30C235B5-1EB0-E145-A594-64C466D7B052}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FEC14BA3-3840-3443-8ADE-6F555579BD03}" type="presOf" srcId="{AE6848BE-6B67-2145-8720-BEF970FB5FF7}" destId="{502F7D43-040B-6F46-BB75-6D60B24AAAEC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B6477F35-6090-E94A-9AB9-AEC4AA5FF47F}" type="presOf" srcId="{0E7C2159-C479-4D46-9AB0-347CF613D83A}" destId="{89174E2D-8355-A94E-8D77-1C16A36A0B7C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1977505F-8517-8B44-A115-24D7411F1474}" type="presOf" srcId="{A59E496E-FE5F-6C4C-8B67-B72CF1CFCC53}" destId="{8A61D3F9-8C9D-154D-AB14-AF77FFEA945E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{BF5DA366-0067-EA44-A75C-95BBC9395E33}" srcId="{E4ED0CBB-7581-404A-A651-2615B3528EAE}" destId="{9E94AF94-C4D4-9343-BE8D-A8A5054DDD6B}" srcOrd="0" destOrd="0" parTransId="{E7203974-4117-4148-89BB-CD0D6B6D83C5}" sibTransId="{40222EFE-D35D-6843-9EED-6587F8204F35}"/>
-    <dgm:cxn modelId="{D2087F92-3587-3346-A53E-F5250A237D3B}" srcId="{2A2DA83D-CDA2-764F-9B02-7CC661E15BBE}" destId="{48643BAB-7807-3240-91F5-5DEF038BB486}" srcOrd="0" destOrd="0" parTransId="{BBB2DE39-17F3-7343-9B2F-79C363F93867}" sibTransId="{7F8820E5-B407-414B-AE2B-1427719280A3}"/>
-    <dgm:cxn modelId="{1D0730C6-E7CE-7247-8532-5ADC93C48202}" srcId="{9E94AF94-C4D4-9343-BE8D-A8A5054DDD6B}" destId="{FDCC0C92-E67C-5A4C-B26F-12579B562C91}" srcOrd="0" destOrd="0" parTransId="{9F9DBA58-9B9E-FD4E-89EC-F16E2FDF3BCF}" sibTransId="{495AA93D-E0E1-3E4F-9DD4-62ADF6971E26}"/>
-    <dgm:cxn modelId="{64676B1D-A345-D347-AF30-60BDF9DB85C6}" type="presOf" srcId="{9EDE6D3D-30F0-7346-BFCE-0A5ED7ADA30F}" destId="{A7058EAD-02AD-5643-8A4E-21ADBC8AB604}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{21A59127-0F77-4949-82CA-6CBC3E1F1B32}" srcId="{D83F5DE6-4069-7E44-98EC-C3B3F02D9212}" destId="{63899E79-05AA-4042-9838-C582A11E7D99}" srcOrd="2" destOrd="0" parTransId="{DBC5D1EE-B611-9441-B42E-EF3891670ECB}" sibTransId="{F7BE6B11-B2D3-2147-89FE-A28A452E5EA3}"/>
-    <dgm:cxn modelId="{F7936360-16BA-9642-AF8C-02464AE10DCF}" type="presOf" srcId="{FCF6C2CD-760A-0347-811F-98C195F99225}" destId="{8F419E7A-315F-1C48-A278-F72E6FC14400}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{596B040B-F6ED-224D-ACAB-768D3ECDAAD9}" type="presOf" srcId="{D83F5DE6-4069-7E44-98EC-C3B3F02D9212}" destId="{174DC525-7017-EC49-9AF9-4F586C88D61A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{20908682-503A-CB46-8AD9-FDA136E58CB5}" type="presParOf" srcId="{7F03017C-9FC7-7541-ABB9-8EFF3981B9B8}" destId="{2DB5850D-E971-AA49-B605-C884690094F7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{DD5584FF-063C-D541-99F3-3D012D3BA299}" type="presParOf" srcId="{2DB5850D-E971-AA49-B605-C884690094F7}" destId="{7E136F4D-1CEB-4D40-9456-E7737F05D29C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{74251243-7AFA-6D49-951D-BC3DB5B1BE6D}" type="presParOf" srcId="{7E136F4D-1CEB-4D40-9456-E7737F05D29C}" destId="{33D6B3FA-2E13-EB4E-BCAF-1568A14B6534}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
@@ -4802,6 +5178,13 @@
     <dgm:cxn modelId="{4A1A2918-39F1-324B-B7DE-D04990B4C8ED}" type="presParOf" srcId="{D581764E-AD30-F442-BF07-BF9D22ECACDA}" destId="{CA691CA7-3B38-654F-BA91-8B2DA32F04C2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{8DB3106F-7DBC-6D42-8CC8-C82D12572664}" type="presParOf" srcId="{4E4CED57-8AC7-2948-8913-35BFD19C7A75}" destId="{7636284B-63EB-304E-93F6-54DAB5B2BDBE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{8CB4DB8D-739D-6A46-8BC7-CBB5207F62EC}" type="presParOf" srcId="{4E4CED57-8AC7-2948-8913-35BFD19C7A75}" destId="{5A3688F3-D733-FC43-BBF7-07B5E507897E}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{443649A2-088A-494C-887A-B8152FB66E74}" type="presParOf" srcId="{05D0E383-4D9A-2C4E-9193-AA16C1BFE0CF}" destId="{348ED077-8DA1-9C41-97D9-587A29C55E06}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F33D9476-CBB5-8147-B27F-0FABE62671F5}" type="presParOf" srcId="{05D0E383-4D9A-2C4E-9193-AA16C1BFE0CF}" destId="{471C6F6D-DC44-064B-A60E-F98382A03DA3}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DC8A18C4-9665-5741-AAE9-FF77117C5911}" type="presParOf" srcId="{471C6F6D-DC44-064B-A60E-F98382A03DA3}" destId="{9FC8B576-4283-9347-93F3-ED4C60DC5F50}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E28DCEB4-F476-404C-AA2E-352B1B9AB479}" type="presParOf" srcId="{9FC8B576-4283-9347-93F3-ED4C60DC5F50}" destId="{1BB511E8-2B8D-B345-A404-0DA5B680B134}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{63F2037C-C268-834E-A3D1-76EE87683C54}" type="presParOf" srcId="{9FC8B576-4283-9347-93F3-ED4C60DC5F50}" destId="{AEF8D581-119C-7943-B670-64BC19D4818A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0817F1E0-2612-164A-80F5-09A7F7F9ABAB}" type="presParOf" srcId="{471C6F6D-DC44-064B-A60E-F98382A03DA3}" destId="{BD4D4C48-C6D3-1B4E-B0BE-709BCDCCE85C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9971B706-202D-F044-A3A6-3DCACC14F241}" type="presParOf" srcId="{471C6F6D-DC44-064B-A60E-F98382A03DA3}" destId="{C242171E-008A-1E45-98D4-395AF798B74C}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
   </dgm:cxnLst>
   <dgm:bg/>
   <dgm:whole/>
@@ -4821,15 +5204,15 @@
       <dsp:cNvGrpSpPr/>
     </dsp:nvGrpSpPr>
     <dsp:grpSpPr/>
-    <dsp:sp modelId="{34C9115F-49E5-654E-BFD2-803C9A38F6C8}">
+    <dsp:sp modelId="{348ED077-8DA1-9C41-97D9-587A29C55E06}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13438949" y="5360100"/>
-          <a:ext cx="91440" cy="1244513"/>
+          <a:off x="14729966" y="1196442"/>
+          <a:ext cx="91440" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4840,13 +5223,71 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="115227" y="0"/>
+                <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="115227" y="1244513"/>
+                <a:pt x="45720" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="45720" y="1244513"/>
+                <a:pt x="113489" y="296895"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{34C9115F-49E5-654E-BFD2-803C9A38F6C8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="13100266" y="5320713"/>
+          <a:ext cx="91440" cy="1213400"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="113489" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="113489" y="1213400"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="45720" y="1213400"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4886,8 +5327,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="14309446" y="5830103"/>
-          <a:ext cx="91440" cy="304508"/>
+          <a:off x="13949000" y="5778965"/>
+          <a:ext cx="91440" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4901,10 +5342,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="304508"/>
+                <a:pt x="45720" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="115227" y="304508"/>
+                <a:pt x="113489" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4944,8 +5385,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="14239939" y="5830103"/>
-          <a:ext cx="91440" cy="304508"/>
+          <a:off x="13881231" y="5778965"/>
+          <a:ext cx="91440" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4956,13 +5397,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="115227" y="0"/>
+                <a:pt x="113489" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="115227" y="304508"/>
+                <a:pt x="113489" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="45720" y="304508"/>
+                <a:pt x="45720" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5002,8 +5443,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13554176" y="5360100"/>
-          <a:ext cx="470002" cy="304508"/>
+          <a:off x="13213755" y="5320713"/>
+          <a:ext cx="458252" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5017,10 +5458,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="304508"/>
+                <a:pt x="0" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="470002" y="304508"/>
+                <a:pt x="458252" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5060,8 +5501,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13438949" y="5360100"/>
-          <a:ext cx="91440" cy="304508"/>
+          <a:off x="13100266" y="5320713"/>
+          <a:ext cx="91440" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5072,13 +5513,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="115227" y="0"/>
+                <a:pt x="113489" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="115227" y="304508"/>
+                <a:pt x="113489" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="45720" y="304508"/>
+                <a:pt x="45720" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5118,8 +5559,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12753186" y="4890098"/>
-          <a:ext cx="470002" cy="304508"/>
+          <a:off x="12432790" y="4862460"/>
+          <a:ext cx="458252" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5133,10 +5574,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="304508"/>
+                <a:pt x="0" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="470002" y="304508"/>
+                <a:pt x="458252" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5176,8 +5617,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11906476" y="5360100"/>
-          <a:ext cx="91440" cy="304508"/>
+          <a:off x="11606105" y="5320713"/>
+          <a:ext cx="91440" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5191,10 +5632,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="304508"/>
+                <a:pt x="45720" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="115227" y="304508"/>
+                <a:pt x="113489" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5234,8 +5675,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11836969" y="5360100"/>
-          <a:ext cx="91440" cy="304508"/>
+          <a:off x="11538335" y="5320713"/>
+          <a:ext cx="91440" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5246,13 +5687,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="115227" y="0"/>
+                <a:pt x="113489" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="115227" y="304508"/>
+                <a:pt x="113489" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="45720" y="304508"/>
+                <a:pt x="45720" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5292,8 +5733,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12283184" y="4890098"/>
-          <a:ext cx="470002" cy="304508"/>
+          <a:off x="11974538" y="4862460"/>
+          <a:ext cx="458252" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5304,13 +5745,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="470002" y="0"/>
+                <a:pt x="458252" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="470002" y="304508"/>
+                <a:pt x="458252" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="304508"/>
+                <a:pt x="0" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5350,8 +5791,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11151206" y="2070084"/>
-          <a:ext cx="1270992" cy="2654520"/>
+          <a:off x="10870860" y="2112947"/>
+          <a:ext cx="1239217" cy="2588157"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5365,10 +5806,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2654520"/>
+                <a:pt x="0" y="2588157"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1270992" y="2654520"/>
+                <a:pt x="1239217" y="2588157"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5408,8 +5849,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5474770" y="2070084"/>
-          <a:ext cx="5676436" cy="2654520"/>
+          <a:off x="5336334" y="2112947"/>
+          <a:ext cx="5534525" cy="2588157"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5420,13 +5861,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="5676436" y="0"/>
+                <a:pt x="5534525" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="5676436" y="2654520"/>
+                <a:pt x="5534525" y="2588157"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="2654520"/>
+                <a:pt x="0" y="2588157"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5466,8 +5907,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11105486" y="2070084"/>
-          <a:ext cx="91440" cy="304508"/>
+          <a:off x="10825140" y="2112947"/>
+          <a:ext cx="91440" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5481,10 +5922,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="304508"/>
+                <a:pt x="45720" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="115227" y="304508"/>
+                <a:pt x="113489" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5524,8 +5965,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10304497" y="3480091"/>
-          <a:ext cx="91440" cy="304508"/>
+          <a:off x="10044175" y="3487704"/>
+          <a:ext cx="91440" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5539,10 +5980,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="304508"/>
+                <a:pt x="45720" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="115227" y="304508"/>
+                <a:pt x="113489" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5582,8 +6023,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10234989" y="3480091"/>
-          <a:ext cx="91440" cy="304508"/>
+          <a:off x="9976405" y="3487704"/>
+          <a:ext cx="91440" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5594,13 +6035,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="115227" y="0"/>
+                <a:pt x="113489" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="115227" y="304508"/>
+                <a:pt x="113489" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="45720" y="304508"/>
+                <a:pt x="45720" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5640,8 +6081,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9549227" y="3010089"/>
-          <a:ext cx="470002" cy="304508"/>
+          <a:off x="9308930" y="3029451"/>
+          <a:ext cx="458252" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5655,10 +6096,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="304508"/>
+                <a:pt x="0" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="470002" y="304508"/>
+                <a:pt x="458252" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5698,8 +6139,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8702517" y="3950093"/>
-          <a:ext cx="91440" cy="304508"/>
+          <a:off x="8482245" y="3945956"/>
+          <a:ext cx="91440" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5713,10 +6154,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="304508"/>
+                <a:pt x="45720" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="115227" y="304508"/>
+                <a:pt x="113489" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5756,8 +6197,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8633009" y="3950093"/>
-          <a:ext cx="91440" cy="304508"/>
+          <a:off x="8414475" y="3945956"/>
+          <a:ext cx="91440" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5768,13 +6209,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="115227" y="0"/>
+                <a:pt x="113489" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="115227" y="304508"/>
+                <a:pt x="113489" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="45720" y="304508"/>
+                <a:pt x="45720" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5814,8 +6255,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7947247" y="3480091"/>
-          <a:ext cx="470002" cy="304508"/>
+          <a:off x="7746999" y="3487704"/>
+          <a:ext cx="458252" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5829,10 +6270,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="304508"/>
+                <a:pt x="0" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="470002" y="304508"/>
+                <a:pt x="458252" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5872,8 +6313,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7100537" y="3950093"/>
-          <a:ext cx="91440" cy="304508"/>
+          <a:off x="6920314" y="3945956"/>
+          <a:ext cx="91440" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5887,10 +6328,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="304508"/>
+                <a:pt x="45720" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="115227" y="304508"/>
+                <a:pt x="113489" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5930,8 +6371,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7031030" y="3950093"/>
-          <a:ext cx="91440" cy="304508"/>
+          <a:off x="6852545" y="3945956"/>
+          <a:ext cx="91440" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5942,13 +6383,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="115227" y="0"/>
+                <a:pt x="113489" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="115227" y="304508"/>
+                <a:pt x="113489" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="45720" y="304508"/>
+                <a:pt x="45720" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5988,8 +6429,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7477245" y="3480091"/>
-          <a:ext cx="470002" cy="304508"/>
+          <a:off x="7288747" y="3487704"/>
+          <a:ext cx="458252" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6000,13 +6441,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="470002" y="0"/>
+                <a:pt x="458252" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="470002" y="304508"/>
+                <a:pt x="458252" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="304508"/>
+                <a:pt x="0" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6046,8 +6487,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8278235" y="3010089"/>
-          <a:ext cx="1270992" cy="304508"/>
+          <a:off x="8069712" y="3029451"/>
+          <a:ext cx="1239217" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6058,13 +6499,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="1270992" y="0"/>
+                <a:pt x="1239217" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1270992" y="304508"/>
+                <a:pt x="1239217" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="304508"/>
+                <a:pt x="0" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6104,8 +6545,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6345267" y="2540086"/>
-          <a:ext cx="2872971" cy="304508"/>
+          <a:off x="6185069" y="2571199"/>
+          <a:ext cx="2801147" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6119,10 +6560,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="304508"/>
+                <a:pt x="0" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2872971" y="304508"/>
+                <a:pt x="2801147" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6162,8 +6603,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5498557" y="3010089"/>
-          <a:ext cx="91440" cy="304508"/>
+          <a:off x="5358384" y="3029451"/>
+          <a:ext cx="91440" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6177,10 +6618,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="304508"/>
+                <a:pt x="45720" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="115227" y="304508"/>
+                <a:pt x="113489" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6220,8 +6661,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5429050" y="3010089"/>
-          <a:ext cx="91440" cy="304508"/>
+          <a:off x="5290614" y="3029451"/>
+          <a:ext cx="91440" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6232,13 +6673,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="115227" y="0"/>
+                <a:pt x="113489" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="115227" y="304508"/>
+                <a:pt x="113489" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="45720" y="304508"/>
+                <a:pt x="45720" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6278,8 +6719,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5875265" y="2540086"/>
-          <a:ext cx="470002" cy="304508"/>
+          <a:off x="5726817" y="2571199"/>
+          <a:ext cx="458252" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6290,13 +6731,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="470002" y="0"/>
+                <a:pt x="458252" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="470002" y="304508"/>
+                <a:pt x="458252" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="304508"/>
+                <a:pt x="0" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6336,8 +6777,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6676255" y="2070084"/>
-          <a:ext cx="4474951" cy="304508"/>
+          <a:off x="6507782" y="2112947"/>
+          <a:ext cx="4363077" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6348,13 +6789,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="4474951" y="0"/>
+                <a:pt x="4363077" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="4474951" y="304508"/>
+                <a:pt x="4363077" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="304508"/>
+                <a:pt x="0" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6394,8 +6835,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4743287" y="1600082"/>
-          <a:ext cx="6076931" cy="304508"/>
+          <a:off x="4623139" y="1654695"/>
+          <a:ext cx="5925008" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6409,10 +6850,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="304508"/>
+                <a:pt x="0" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="6076931" y="304508"/>
+                <a:pt x="5925008" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6452,8 +6893,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3896578" y="3010089"/>
-          <a:ext cx="91440" cy="304508"/>
+          <a:off x="3796454" y="3029451"/>
+          <a:ext cx="91440" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6467,10 +6908,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="304508"/>
+                <a:pt x="45720" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="115227" y="304508"/>
+                <a:pt x="113489" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6510,8 +6951,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3827070" y="3010089"/>
-          <a:ext cx="91440" cy="304508"/>
+          <a:off x="3728684" y="3029451"/>
+          <a:ext cx="91440" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6522,13 +6963,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="115227" y="0"/>
+                <a:pt x="113489" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="115227" y="304508"/>
+                <a:pt x="113489" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="45720" y="304508"/>
+                <a:pt x="45720" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6568,8 +7009,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3141308" y="2540086"/>
-          <a:ext cx="470002" cy="304508"/>
+          <a:off x="3061209" y="2571199"/>
+          <a:ext cx="458252" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6583,10 +7024,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="304508"/>
+                <a:pt x="0" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="470002" y="304508"/>
+                <a:pt x="458252" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6626,8 +7067,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2294598" y="3010089"/>
-          <a:ext cx="91440" cy="304508"/>
+          <a:off x="2234524" y="3029451"/>
+          <a:ext cx="91440" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6641,10 +7082,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="304508"/>
+                <a:pt x="45720" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="115227" y="304508"/>
+                <a:pt x="113489" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6684,8 +7125,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2225091" y="3010089"/>
-          <a:ext cx="91440" cy="304508"/>
+          <a:off x="2166754" y="3029451"/>
+          <a:ext cx="91440" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6696,13 +7137,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="115227" y="0"/>
+                <a:pt x="113489" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="115227" y="304508"/>
+                <a:pt x="113489" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="45720" y="304508"/>
+                <a:pt x="45720" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6742,8 +7183,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2671305" y="2540086"/>
-          <a:ext cx="470002" cy="304508"/>
+          <a:off x="2602957" y="2571199"/>
+          <a:ext cx="458252" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6754,13 +7195,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="470002" y="0"/>
+                <a:pt x="458252" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="470002" y="304508"/>
+                <a:pt x="458252" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="304508"/>
+                <a:pt x="0" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6800,8 +7241,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1539328" y="2070084"/>
-          <a:ext cx="1270992" cy="304508"/>
+          <a:off x="1499279" y="2112947"/>
+          <a:ext cx="1239217" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6815,10 +7256,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="304508"/>
+                <a:pt x="0" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1270992" y="304508"/>
+                <a:pt x="1239217" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6858,8 +7299,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="692618" y="2540086"/>
-          <a:ext cx="91440" cy="304508"/>
+          <a:off x="672593" y="2571199"/>
+          <a:ext cx="91440" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6873,10 +7314,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="304508"/>
+                <a:pt x="45720" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="115227" y="304508"/>
+                <a:pt x="113489" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6916,8 +7357,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="623111" y="2540086"/>
-          <a:ext cx="91440" cy="304508"/>
+          <a:off x="604824" y="2571199"/>
+          <a:ext cx="91440" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6928,13 +7369,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="115227" y="0"/>
+                <a:pt x="113489" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="115227" y="304508"/>
+                <a:pt x="113489" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="45720" y="304508"/>
+                <a:pt x="45720" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6974,8 +7415,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1069326" y="2070084"/>
-          <a:ext cx="470002" cy="304508"/>
+          <a:off x="1041026" y="2112947"/>
+          <a:ext cx="458252" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6986,13 +7427,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="470002" y="0"/>
+                <a:pt x="458252" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="470002" y="304508"/>
+                <a:pt x="458252" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="304508"/>
+                <a:pt x="0" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7032,8 +7473,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1870316" y="1600082"/>
-          <a:ext cx="2872971" cy="304508"/>
+          <a:off x="1821991" y="1654695"/>
+          <a:ext cx="2801147" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7044,13 +7485,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="2872971" y="0"/>
+                <a:pt x="2801147" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2872971" y="304508"/>
+                <a:pt x="2801147" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="304508"/>
+                <a:pt x="0" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7090,8 +7531,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5074275" y="1130079"/>
-          <a:ext cx="10081880" cy="304508"/>
+          <a:off x="4945852" y="1196442"/>
+          <a:ext cx="9829833" cy="296895"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7102,13 +7543,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="10081880" y="0"/>
+                <a:pt x="9829833" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="10081880" y="304508"/>
+                <a:pt x="9829833" y="296895"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="304508"/>
+                <a:pt x="0" y="296895"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7148,8 +7589,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="14825168" y="799092"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="14452973" y="873730"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7227,12 +7668,11 @@
             <a:rPr lang="en-US" sz="500" kern="1200"/>
             <a:t>homepage.html</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="14825168" y="799092"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="14452973" y="873730"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6570005E-6DBA-7D49-929B-7C0CB6C22ABE}">
@@ -7242,8 +7682,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4412300" y="1269094"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="4300426" y="1331982"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7324,8 +7764,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4412300" y="1269094"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="4300426" y="1331982"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{36F9256E-EF1E-1649-95C3-EC3394BE632E}">
@@ -7335,8 +7775,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1208340" y="1739096"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="1176566" y="1790234"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7417,8 +7857,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1208340" y="1739096"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="1176566" y="1790234"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B59F6365-8BA9-E74A-B4E4-AA8955AA885F}">
@@ -7428,8 +7868,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="407351" y="2209099"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="395601" y="2248486"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7510,8 +7950,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="407351" y="2209099"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="395601" y="2248486"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1A094F09-21A9-2446-9C87-D6568214B312}">
@@ -7521,8 +7961,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6856" y="2679101"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="5118" y="2706739"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7603,8 +8043,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6856" y="2679101"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="5118" y="2706739"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0813E996-DE7E-CC4C-88B1-1605FACED624}">
@@ -7614,8 +8054,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="807846" y="2679101"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="786083" y="2706739"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7696,8 +8136,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="807846" y="2679101"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="786083" y="2706739"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{10F3BD33-9FA5-4B44-8E3A-D6D6C8DD7D35}">
@@ -7707,8 +8147,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2810320" y="2209099"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="2738496" y="2248486"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7789,8 +8229,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2810320" y="2209099"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="2738496" y="2248486"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{96039AA3-075B-EA40-9C29-3D06574FDD82}">
@@ -7800,8 +8240,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2009330" y="2679101"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="1957531" y="2706739"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7882,8 +8322,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2009330" y="2679101"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="1957531" y="2706739"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{78E94E3B-D045-6C4B-AC79-537C4DE11A8B}">
@@ -7893,8 +8333,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1608835" y="3149103"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="1567048" y="3164991"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7975,8 +8415,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1608835" y="3149103"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="1567048" y="3164991"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{30C235B5-1EB0-E145-A594-64C466D7B052}">
@@ -7986,8 +8426,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2409825" y="3149103"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="2348013" y="3164991"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8068,8 +8508,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2409825" y="3149103"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="2348013" y="3164991"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{350630EE-58E5-F04C-AC1A-4C64196B938E}">
@@ -8079,8 +8519,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3611310" y="2679101"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="3519461" y="2706739"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8161,8 +8601,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3611310" y="2679101"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="3519461" y="2706739"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E88F571A-854C-AC47-953F-4D04625BAA13}">
@@ -8172,8 +8612,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3210815" y="3149103"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="3128978" y="3164991"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8254,8 +8694,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3210815" y="3149103"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="3128978" y="3164991"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A32C358C-6D14-0649-84AB-0052A00E0CD9}">
@@ -8265,8 +8705,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4011805" y="3149103"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="3909944" y="3164991"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8347,8 +8787,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4011805" y="3149103"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="3909944" y="3164991"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8A61D3F9-8C9D-154D-AB14-AF77FFEA945E}">
@@ -8358,8 +8798,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10820219" y="1739096"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="10548147" y="1790234"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8440,8 +8880,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10820219" y="1739096"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="10548147" y="1790234"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1A36237F-885D-9644-A72C-B998CE8310AC}">
@@ -8451,8 +8891,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6014280" y="2209099"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="5862356" y="2248486"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8533,8 +8973,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6014280" y="2209099"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="5862356" y="2248486"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8F419E7A-315F-1C48-A278-F72E6FC14400}">
@@ -8544,8 +8984,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5213290" y="2679101"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="5081391" y="2706739"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8626,8 +9066,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5213290" y="2679101"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="5081391" y="2706739"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{128F6B90-A50A-1C44-A410-1CC988237174}">
@@ -8637,8 +9077,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4812795" y="3149103"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="4690909" y="3164991"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8719,8 +9159,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4812795" y="3149103"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="4690909" y="3164991"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C9451A94-8933-6A4A-9586-08C35ADA9D83}">
@@ -8730,8 +9170,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5613785" y="3149103"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="5471874" y="3164991"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8812,8 +9252,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5613785" y="3149103"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="5471874" y="3164991"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3EC6198D-D583-D549-9926-68B16C1BD20F}">
@@ -8823,8 +9263,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9218239" y="2679101"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="8986217" y="2706739"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8905,8 +9345,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9218239" y="2679101"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="8986217" y="2706739"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9139F5E7-A310-AC4E-B18B-1CE09309F2B9}">
@@ -8916,8 +9356,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7616259" y="3149103"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="7424287" y="3164991"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8998,8 +9438,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7616259" y="3149103"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="7424287" y="3164991"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E3C3CA58-A08C-2245-A904-FD0C195AAD1A}">
@@ -9009,8 +9449,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6815270" y="3619106"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="6643322" y="3623243"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9091,8 +9531,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6815270" y="3619106"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="6643322" y="3623243"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5BA63115-F5E5-D54E-B9E1-642C23FE3734}">
@@ -9102,8 +9542,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6414775" y="4089108"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="6252839" y="4081495"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9184,8 +9624,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6414775" y="4089108"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="6252839" y="4081495"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7FAD7C1A-CEF0-264A-86CC-E95C36EE828E}">
@@ -9195,8 +9635,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7215764" y="4089108"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="7033804" y="4081495"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9277,8 +9717,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7215764" y="4089108"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="7033804" y="4081495"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{02493BAD-639A-8B41-8013-F46C0758C6FA}">
@@ -9288,8 +9728,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8417249" y="3619106"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="8205252" y="3623243"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9370,8 +9810,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8417249" y="3619106"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="8205252" y="3623243"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{EC18C83C-EDFB-5544-ABA5-89DA490A17C1}">
@@ -9381,8 +9821,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8016754" y="4089108"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="7814769" y="4081495"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9463,8 +9903,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8016754" y="4089108"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="7814769" y="4081495"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5264769D-5BD9-A148-9075-D4667B096EE8}">
@@ -9474,8 +9914,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8817744" y="4089108"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="8595734" y="4081495"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9556,8 +9996,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8817744" y="4089108"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="8595734" y="4081495"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5C0963F4-07E1-734F-AD64-E38BF62A5B25}">
@@ -9567,8 +10007,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10019229" y="3149103"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="9767182" y="3164991"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9649,8 +10089,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10019229" y="3149103"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="9767182" y="3164991"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{07698481-C782-8942-8C82-9CBBF6E04FBA}">
@@ -9660,8 +10100,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9618734" y="3619106"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="9376699" y="3623243"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9742,8 +10182,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9618734" y="3619106"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="9376699" y="3623243"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F890C46F-A3AD-4F48-85C0-47078161FA34}">
@@ -9753,8 +10193,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10419724" y="3619106"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="10157665" y="3623243"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9835,8 +10275,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10419724" y="3619106"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="10157665" y="3623243"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{AC9633E0-1129-CF4A-975D-070874289BB3}">
@@ -9846,8 +10286,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11220714" y="2209099"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="10938630" y="2248486"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9928,8 +10368,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11220714" y="2209099"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="10938630" y="2248486"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B8A23D85-76FD-214A-94B7-B85CBC35CC76}">
@@ -9939,8 +10379,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4812795" y="4559110"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="4690909" y="4539748"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10021,8 +10461,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4812795" y="4559110"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="4690909" y="4539748"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{101CD3BE-1B17-3D43-8489-E997777BB35E}">
@@ -10032,8 +10472,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12422199" y="4559110"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="12110077" y="4539748"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10114,8 +10554,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12422199" y="4559110"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="12110077" y="4539748"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A7058EAD-02AD-5643-8A4E-21ADBC8AB604}">
@@ -10125,8 +10565,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11621209" y="5029113"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="11329112" y="4998000"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10207,8 +10647,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11621209" y="5029113"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="11329112" y="4998000"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7CCB52B1-4542-4B4C-AF2F-E93021CD7FE2}">
@@ -10218,8 +10658,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11220714" y="5499115"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="10938630" y="5456252"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10300,8 +10740,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11220714" y="5499115"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="10938630" y="5456252"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1F69B79B-8384-D441-BE9A-D8187C401D00}">
@@ -10311,8 +10751,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12021704" y="5499115"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="11719595" y="5456252"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10393,8 +10833,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12021704" y="5499115"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="11719595" y="5456252"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{79811B6C-2D41-7448-A502-5AC18F110A1E}">
@@ -10404,8 +10844,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13223188" y="5029113"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="12891042" y="4998000"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10486,8 +10926,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13223188" y="5029113"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="12891042" y="4998000"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{CDCFE67A-6E10-714C-8B91-25AE9315E32B}">
@@ -10497,8 +10937,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12822694" y="5499115"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="12500560" y="5456252"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10579,8 +11019,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12822694" y="5499115"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="12500560" y="5456252"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{46C7554D-3218-8B48-88A9-8D34C5F1E971}">
@@ -10590,8 +11030,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="14024178" y="5499115"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="13672008" y="5456252"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10672,8 +11112,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="14024178" y="5499115"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="13672008" y="5456252"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B618608D-7AD7-9C49-9EC4-26C7D3BD5726}">
@@ -10683,8 +11123,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13623683" y="5969117"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="13281525" y="5914504"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10765,8 +11205,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13623683" y="5969117"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="13281525" y="5914504"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B528BBE8-BC90-9447-9F81-937A7D37D38C}">
@@ -10776,8 +11216,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="14424673" y="5969117"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="14062490" y="5914504"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10858,8 +11298,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="14424673" y="5969117"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="14062490" y="5914504"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3580C7A2-7354-4746-A370-18ED38E46B1C}">
@@ -10869,8 +11309,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12822694" y="6439120"/>
-          <a:ext cx="661975" cy="330987"/>
+          <a:off x="12500560" y="6372757"/>
+          <a:ext cx="645425" cy="322712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10951,8 +11391,101 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12822694" y="6439120"/>
-        <a:ext cx="661975" cy="330987"/>
+        <a:off x="12500560" y="6372757"/>
+        <a:ext cx="645425" cy="322712"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1BB511E8-2B8D-B345-A404-0DA5B680B134}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="14843455" y="1331982"/>
+          <a:ext cx="645425" cy="322712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3175" tIns="3175" rIns="3175" bIns="3175" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="500" kern="1200"/>
+            <a:t>about.html (this covers a brief intro to Bryan Osborne)</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="14843455" y="1331982"/>
+        <a:ext cx="645425" cy="322712"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -13498,8 +14031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
